--- a/Testing of the Registration Form.xlsx
+++ b/Testing of the Registration Form.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="433">
   <si>
     <t>http://itcareer.pythonanywhere.com/</t>
   </si>
@@ -785,9 +785,6 @@
 password: 0cAI3l</t>
   </si>
   <si>
-    <t>Можна зареєструватись</t>
-  </si>
-  <si>
     <t>Register by entering the name of the domain part separated by a hyphen</t>
   </si>
   <si>
@@ -950,7 +947,7 @@
 password: %|lhGI</t>
   </si>
   <si>
-    <t>Register by entering a password of 6 characters but special characters</t>
+    <t>Register by entering a password of 6 characters but without special characters</t>
   </si>
   <si>
     <t>name: Viola
@@ -1408,9 +1405,6 @@
     <t>The field frame is highlighted in red. A message appears with a hint that the surname can only be in Latin</t>
   </si>
   <si>
-    <t>Major</t>
-  </si>
-  <si>
     <t>It is possible to register by entering the surname in digits</t>
   </si>
   <si>
@@ -1949,7 +1943,389 @@
 3. Pay attention to the message about successful registration.</t>
   </si>
   <si>
-    <t>It is possible to register by entering</t>
+    <t>It is possible to register by entering the domain name with two hyphens in a row</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Marcos
+surname: Veum
+email: email@domain--name.com
+password: 0cAI3l
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering the domain name with two consecutive dots</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Fredy
+surname: Batz
+email: email@domain..com
+password: 0cAI3l
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering the domain name with hyphens at the beginning and end</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Dorthy
+surname: Watsica
+email: email@-domain-.com
+password: 0cAI3l
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering all data except password</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Ariel
+surname: Sanford
+email: email1@domain.com
+password: 
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>The field frame is highlighted in red. A message appears with a hint that you need to enter the password</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of five characters</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Raleigh
+surname: Volkman
+email: email35@domain.com
+password: 0cAI3
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>The field frame is highlighted in red. A message appears with a hint that the password must consist of at least six characters</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 25 characters</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Armando
+surname: Klein
+email: email37@domain.com
+password: |0Ckm0B;OI8IA4|l)0l6l|)ed
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>The field frame is highlighted in red. A message appears with a hint that the password must consist of a maximum of 25 characters</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 6 Cyrillic characters</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Michaela
+surname: Jones
+email: email38@domain.com
+password: ждлзщш
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>The field frame is highlighted in red. A message appears with a hint that the password must consist of at least one Latin letter, a number, a special character</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 6 digits</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Emmie
+surname: Braun
+email: email39@domain.com
+password: 123456
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 6 special characters</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Betsy
+surname: Bergnaum
+email: email40@domain.com
+password: !@#$%^
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a valid password with spaces at the beginning and end</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Linwood
+surname: Kunde
+email: email41@domain.com
+password:  !F#1%^ 
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>The field frame is highlighted in red. A message appears with a hint that the password must not contain spaces</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 6 characters but without lowercase Latin letters</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Helen
+surname: Daugherty
+email: email42@domain.com
+password: |04&amp;OM
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 6 characters but without uppercase Latin letters</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Terence
+surname: Hintz
+email: email43@domain.com
+password: 5|l0y(
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 6 characters but without numbers</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Shane
+surname: Sauer
+email: email44@domain.com
+password: %|lhGI
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register with password of 6 characters but no special characters required</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The page of the registration form is opened:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://itcareer.pythonanywhere.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the following credentials in the form fields:
+name: Viola
+surname: Lubowitz
+email: email45@domain.com
+password: 1B9sOl
+2. Submit the form.
+3. Pay attention to the message about successful registration.</t>
+  </si>
+  <si>
+    <t>It is possible to register by entering a password of 6 characters but special characters</t>
   </si>
 </sst>
 </file>
@@ -6843,16 +7219,16 @@
       <c r="D72" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="29" t="s">
-        <v>194</v>
+      <c r="E72" s="19">
+        <v>35.0</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>67</v>
@@ -6861,24 +7237,24 @@
     </row>
     <row r="74">
       <c r="B74" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="29" t="s">
-        <v>194</v>
+      <c r="E74" s="19">
+        <v>36.0</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>67</v>
@@ -6887,38 +7263,38 @@
     </row>
     <row r="76">
       <c r="B76" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>202</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="29" t="s">
-        <v>194</v>
+      <c r="E76" s="19">
+        <v>37.0</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="29" t="s">
-        <v>194</v>
+      <c r="E77" s="19">
+        <v>38.0</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>205</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>206</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>67</v>
@@ -6928,7 +7304,7 @@
     </row>
     <row r="79">
       <c r="B79" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="21" t="s">
@@ -6939,41 +7315,41 @@
     </row>
     <row r="80">
       <c r="B80" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>209</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="29" t="s">
-        <v>194</v>
+      <c r="E80" s="19">
+        <v>39.0</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="29" t="s">
-        <v>194</v>
+      <c r="E81" s="19">
+        <v>40.0</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>214</v>
       </c>
       <c r="D82" s="21" t="s">
         <v>67</v>
@@ -6982,128 +7358,128 @@
     </row>
     <row r="83">
       <c r="B83" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="29" t="s">
-        <v>194</v>
+      <c r="E83" s="19">
+        <v>41.0</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>217</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>218</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="29" t="s">
-        <v>194</v>
+      <c r="E84" s="19">
+        <v>42.0</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>219</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>220</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="29" t="s">
-        <v>194</v>
+      <c r="E85" s="19">
+        <v>43.0</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>222</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E86" s="29" t="s">
-        <v>194</v>
+      <c r="E86" s="19">
+        <v>44.0</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>223</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>224</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E87" s="29" t="s">
-        <v>194</v>
+      <c r="E87" s="19">
+        <v>45.0</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>225</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>226</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E88" s="29" t="s">
-        <v>194</v>
+      <c r="E88" s="19">
+        <v>46.0</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>228</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="29" t="s">
-        <v>194</v>
+      <c r="E89" s="19">
+        <v>47.0</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>229</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>230</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="29" t="s">
-        <v>194</v>
+      <c r="E90" s="19">
+        <v>48.0</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E91" s="29" t="s">
-        <v>194</v>
+      <c r="E91" s="19">
+        <v>49.0</v>
       </c>
     </row>
     <row r="94">
@@ -10812,34 +11188,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -10847,31 +11223,31 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="38" t="s">
         <v>249</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -10879,31 +11255,31 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="38" t="s">
         <v>254</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="4">
@@ -10911,31 +11287,31 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>259</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5">
@@ -10943,31 +11319,31 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6">
@@ -10975,31 +11351,31 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="24" t="s">
+      <c r="I6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>270</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="7">
@@ -11007,31 +11383,31 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>275</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -11039,31 +11415,31 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>281</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="9">
@@ -11071,31 +11447,31 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>286</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="10">
@@ -11103,31 +11479,31 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="11">
@@ -11135,31 +11511,31 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="D11" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>296</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12">
@@ -11167,31 +11543,31 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="13">
@@ -11199,31 +11575,31 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="D13" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>306</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14">
@@ -11231,31 +11607,31 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="D14" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>311</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="15">
@@ -11263,31 +11639,31 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>316</v>
-      </c>
       <c r="G15" s="24" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K15" s="25"/>
     </row>
@@ -11296,31 +11672,31 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>320</v>
-      </c>
       <c r="E16" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17">
@@ -11328,31 +11704,31 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>323</v>
-      </c>
       <c r="E17" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18">
@@ -11360,31 +11736,31 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="E18" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>327</v>
-      </c>
       <c r="G18" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19">
@@ -11392,31 +11768,31 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="E19" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>331</v>
-      </c>
       <c r="G19" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20">
@@ -11424,31 +11800,31 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>334</v>
-      </c>
       <c r="E20" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21">
@@ -11456,31 +11832,31 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="E21" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>338</v>
-      </c>
       <c r="G21" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22">
@@ -11488,31 +11864,31 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="E22" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>342</v>
-      </c>
       <c r="F22" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23">
@@ -11520,31 +11896,31 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="E23" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>346</v>
-      </c>
       <c r="G23" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24">
@@ -11552,31 +11928,31 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="E24" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25">
@@ -11584,31 +11960,31 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="E25" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26">
@@ -11616,31 +11992,31 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="E26" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27">
@@ -11648,31 +12024,31 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28">
@@ -11680,31 +12056,31 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="E28" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>361</v>
-      </c>
       <c r="F28" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29">
@@ -11712,31 +12088,31 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="E29" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>365</v>
-      </c>
       <c r="F29" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30">
@@ -11744,31 +12120,31 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="E30" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
@@ -11776,31 +12152,31 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>371</v>
-      </c>
       <c r="F31" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32">
@@ -11808,31 +12184,31 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>374</v>
-      </c>
       <c r="E32" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
@@ -11840,31 +12216,31 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>377</v>
-      </c>
       <c r="E33" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K33" s="25"/>
     </row>
@@ -11873,31 +12249,31 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K34" s="25"/>
     </row>
@@ -11906,31 +12282,31 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>382</v>
-      </c>
       <c r="E35" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J35" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K35" s="25"/>
     </row>
@@ -11939,53 +12315,495 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="E36" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="24">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="C37" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="J36" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="3" t="s">
+      <c r="D37" s="17" t="s">
         <v>386</v>
       </c>
+      <c r="E37" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" s="25"/>
     </row>
     <row r="38">
-      <c r="B38" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="A38" s="24">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" s="25"/>
     </row>
     <row r="39">
-      <c r="B39" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="A39" s="24">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" s="25"/>
     </row>
     <row r="40">
-      <c r="B40" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="A40" s="24">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="24">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="24">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="24">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="24">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="24">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="24">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="24">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="24">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="24">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="24">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K50" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12059,7 +12877,35 @@
     <hyperlink r:id="rId68" ref="J35"/>
     <hyperlink r:id="rId69" ref="C36"/>
     <hyperlink r:id="rId70" ref="J36"/>
+    <hyperlink r:id="rId71" ref="C37"/>
+    <hyperlink r:id="rId72" ref="J37"/>
+    <hyperlink r:id="rId73" ref="C38"/>
+    <hyperlink r:id="rId74" ref="J38"/>
+    <hyperlink r:id="rId75" ref="C39"/>
+    <hyperlink r:id="rId76" ref="J39"/>
+    <hyperlink r:id="rId77" ref="C40"/>
+    <hyperlink r:id="rId78" ref="J40"/>
+    <hyperlink r:id="rId79" ref="C41"/>
+    <hyperlink r:id="rId80" ref="J41"/>
+    <hyperlink r:id="rId81" ref="C42"/>
+    <hyperlink r:id="rId82" ref="J42"/>
+    <hyperlink r:id="rId83" ref="C43"/>
+    <hyperlink r:id="rId84" ref="J43"/>
+    <hyperlink r:id="rId85" ref="C44"/>
+    <hyperlink r:id="rId86" ref="J44"/>
+    <hyperlink r:id="rId87" ref="C45"/>
+    <hyperlink r:id="rId88" ref="J45"/>
+    <hyperlink r:id="rId89" ref="C46"/>
+    <hyperlink r:id="rId90" ref="J46"/>
+    <hyperlink r:id="rId91" ref="C47"/>
+    <hyperlink r:id="rId92" ref="J47"/>
+    <hyperlink r:id="rId93" ref="C48"/>
+    <hyperlink r:id="rId94" ref="J48"/>
+    <hyperlink r:id="rId95" ref="C49"/>
+    <hyperlink r:id="rId96" ref="J49"/>
+    <hyperlink r:id="rId97" ref="C50"/>
+    <hyperlink r:id="rId98" ref="J50"/>
   </hyperlinks>
-  <drawing r:id="rId71"/>
+  <drawing r:id="rId99"/>
 </worksheet>
 </file>
--- a/Testing of the Registration Form.xlsx
+++ b/Testing of the Registration Form.xlsx
@@ -1840,12 +1840,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2003,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:B1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I76" activeCellId="0" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2093,8 +2093,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2141,8 +2141,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2171,8 +2171,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2235,8 +2235,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2283,8 +2283,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2313,8 +2313,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2346,10 +2346,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
@@ -2456,10 +2456,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -5516,13 +5516,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="8"/>
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -5597,7 +5597,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -5608,7 +5608,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5617,7 +5617,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -5626,7 +5626,7 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -5661,7 +5661,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -5797,7 +5797,7 @@
       <c r="B25" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -6054,7 +6054,7 @@
       <c r="B44" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -6066,7 +6066,7 @@
       <c r="B45" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -6189,7 +6189,7 @@
       <c r="B54" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D54" s="18" t="s">
@@ -6201,7 +6201,7 @@
       <c r="B55" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>159</v>
       </c>
       <c r="D55" s="16" t="s">
@@ -6257,7 +6257,7 @@
       <c r="B59" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D59" s="16" t="s">
@@ -6283,7 +6283,7 @@
       <c r="B61" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>171</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -6309,7 +6309,7 @@
       <c r="B63" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D63" s="16" t="s">
@@ -6323,7 +6323,7 @@
       <c r="B64" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D64" s="16" t="s">
@@ -6337,7 +6337,7 @@
       <c r="B65" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -6351,7 +6351,7 @@
       <c r="B66" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -6365,7 +6365,7 @@
       <c r="B67" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>183</v>
       </c>
       <c r="D67" s="18" t="s">
@@ -6377,7 +6377,7 @@
       <c r="B68" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D68" s="18" t="s">
@@ -6389,7 +6389,7 @@
       <c r="B69" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>187</v>
       </c>
       <c r="D69" s="16" t="s">
@@ -6403,7 +6403,7 @@
       <c r="B70" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D70" s="18" t="s">
@@ -6415,7 +6415,7 @@
       <c r="B71" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>191</v>
       </c>
       <c r="D71" s="16" t="s">
@@ -6429,7 +6429,7 @@
       <c r="B72" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>193</v>
       </c>
       <c r="D72" s="16" t="s">
@@ -6443,7 +6443,7 @@
       <c r="B73" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -6455,7 +6455,7 @@
       <c r="B74" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D74" s="16" t="s">
@@ -6469,7 +6469,7 @@
       <c r="B75" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D75" s="18" t="s">
@@ -6495,7 +6495,7 @@
       <c r="B77" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>203</v>
       </c>
       <c r="D77" s="16" t="s">
@@ -6550,7 +6550,7 @@
       <c r="B81" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>211</v>
       </c>
       <c r="D81" s="16" t="s">
@@ -6576,7 +6576,7 @@
       <c r="B83" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>215</v>
       </c>
       <c r="D83" s="16" t="s">
@@ -6699,3673 +6699,3673 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="7"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="18"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="7"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="18"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="7"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="18"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="7"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="18"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="7"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="18"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="7"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="18"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="7"/>
+      <c r="B100" s="6"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="7"/>
+      <c r="B101" s="6"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="7"/>
+      <c r="B102" s="6"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="7"/>
+      <c r="B103" s="6"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="7"/>
+      <c r="B104" s="6"/>
       <c r="E104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="7"/>
+      <c r="B105" s="6"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="7"/>
+      <c r="B106" s="6"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="7"/>
+      <c r="B107" s="6"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="7"/>
+      <c r="B108" s="6"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="7"/>
+      <c r="B109" s="6"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="7"/>
+      <c r="B110" s="6"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="7"/>
+      <c r="B111" s="6"/>
       <c r="E111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="7"/>
+      <c r="B112" s="6"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="7"/>
+      <c r="B113" s="6"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="7"/>
+      <c r="B114" s="6"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="7"/>
+      <c r="B115" s="6"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="7"/>
+      <c r="B116" s="6"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="7"/>
+      <c r="B117" s="6"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="7"/>
+      <c r="B118" s="6"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="7"/>
+      <c r="B119" s="6"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="7"/>
+      <c r="B120" s="6"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="7"/>
+      <c r="B121" s="6"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="7"/>
+      <c r="B122" s="6"/>
       <c r="E122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="7"/>
+      <c r="B123" s="6"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="7"/>
+      <c r="B124" s="6"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="7"/>
+      <c r="B125" s="6"/>
       <c r="E125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="7"/>
+      <c r="B126" s="6"/>
       <c r="E126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="7"/>
+      <c r="B127" s="6"/>
       <c r="E127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="7"/>
+      <c r="B128" s="6"/>
       <c r="E128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="7"/>
+      <c r="B129" s="6"/>
       <c r="E129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="7"/>
+      <c r="B130" s="6"/>
       <c r="E130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="7"/>
+      <c r="B131" s="6"/>
       <c r="E131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="7"/>
+      <c r="B132" s="6"/>
       <c r="E132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="7"/>
+      <c r="B133" s="6"/>
       <c r="E133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="7"/>
+      <c r="B134" s="6"/>
       <c r="E134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="7"/>
+      <c r="B135" s="6"/>
       <c r="E135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="7"/>
+      <c r="B136" s="6"/>
       <c r="E136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="7"/>
+      <c r="B137" s="6"/>
       <c r="E137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="7"/>
+      <c r="B138" s="6"/>
       <c r="E138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="7"/>
+      <c r="B139" s="6"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="7"/>
+      <c r="B140" s="6"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="7"/>
+      <c r="B141" s="6"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="7"/>
+      <c r="B142" s="6"/>
       <c r="E142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="7"/>
+      <c r="B143" s="6"/>
       <c r="E143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
       <c r="E144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
       <c r="E145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="7"/>
+      <c r="B146" s="6"/>
       <c r="E146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="7"/>
+      <c r="B147" s="6"/>
       <c r="E147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="7"/>
+      <c r="B148" s="6"/>
       <c r="E148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="7"/>
+      <c r="B149" s="6"/>
       <c r="E149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="7"/>
+      <c r="B150" s="6"/>
       <c r="E150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="7"/>
+      <c r="B151" s="6"/>
       <c r="E151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="7"/>
+      <c r="B152" s="6"/>
       <c r="E152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="7"/>
+      <c r="B153" s="6"/>
       <c r="E153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="7"/>
+      <c r="B154" s="6"/>
       <c r="E154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="7"/>
+      <c r="B155" s="6"/>
       <c r="E155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="7"/>
+      <c r="B156" s="6"/>
       <c r="E156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="7"/>
+      <c r="B157" s="6"/>
       <c r="E157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="7"/>
+      <c r="B158" s="6"/>
       <c r="E158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="7"/>
+      <c r="B159" s="6"/>
       <c r="E159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="7"/>
+      <c r="B160" s="6"/>
       <c r="E160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="7"/>
+      <c r="B161" s="6"/>
       <c r="E161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="7"/>
+      <c r="B162" s="6"/>
       <c r="E162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="7"/>
+      <c r="B163" s="6"/>
       <c r="E163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="7"/>
+      <c r="B164" s="6"/>
       <c r="E164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="7"/>
+      <c r="B165" s="6"/>
       <c r="E165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="7"/>
+      <c r="B166" s="6"/>
       <c r="E166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="7"/>
+      <c r="B167" s="6"/>
       <c r="E167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="7"/>
+      <c r="B168" s="6"/>
       <c r="E168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="7"/>
+      <c r="B169" s="6"/>
       <c r="E169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="7"/>
+      <c r="B170" s="6"/>
       <c r="E170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="7"/>
+      <c r="B171" s="6"/>
       <c r="E171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="7"/>
+      <c r="B172" s="6"/>
       <c r="E172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="7"/>
+      <c r="B173" s="6"/>
       <c r="E173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="7"/>
+      <c r="B174" s="6"/>
       <c r="E174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="7"/>
+      <c r="B175" s="6"/>
       <c r="E175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="7"/>
+      <c r="B176" s="6"/>
       <c r="E176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="7"/>
+      <c r="B177" s="6"/>
       <c r="E177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="7"/>
+      <c r="B178" s="6"/>
       <c r="E178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="7"/>
+      <c r="B179" s="6"/>
       <c r="E179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="7"/>
+      <c r="B180" s="6"/>
       <c r="E180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="7"/>
+      <c r="B181" s="6"/>
       <c r="E181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="7"/>
+      <c r="B182" s="6"/>
       <c r="E182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="7"/>
+      <c r="B183" s="6"/>
       <c r="E183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="7"/>
+      <c r="B184" s="6"/>
       <c r="E184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="7"/>
+      <c r="B185" s="6"/>
       <c r="E185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="7"/>
+      <c r="B186" s="6"/>
       <c r="E186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="7"/>
+      <c r="B187" s="6"/>
       <c r="E187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="7"/>
+      <c r="B188" s="6"/>
       <c r="E188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="7"/>
+      <c r="B189" s="6"/>
       <c r="E189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="7"/>
+      <c r="B190" s="6"/>
       <c r="E190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="7"/>
+      <c r="B191" s="6"/>
       <c r="E191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="7"/>
+      <c r="B192" s="6"/>
       <c r="E192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="7"/>
+      <c r="B193" s="6"/>
       <c r="E193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="7"/>
+      <c r="B194" s="6"/>
       <c r="E194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="7"/>
+      <c r="B195" s="6"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="7"/>
+      <c r="B196" s="6"/>
       <c r="E196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="7"/>
+      <c r="B197" s="6"/>
       <c r="E197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="7"/>
+      <c r="B198" s="6"/>
       <c r="E198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="7"/>
+      <c r="B199" s="6"/>
       <c r="E199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="7"/>
+      <c r="B200" s="6"/>
       <c r="E200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="7"/>
+      <c r="B201" s="6"/>
       <c r="E201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="7"/>
+      <c r="B202" s="6"/>
       <c r="E202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="7"/>
+      <c r="B203" s="6"/>
       <c r="E203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="7"/>
+      <c r="B204" s="6"/>
       <c r="E204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="7"/>
+      <c r="B205" s="6"/>
       <c r="E205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="7"/>
+      <c r="B206" s="6"/>
       <c r="E206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="7"/>
+      <c r="B207" s="6"/>
       <c r="E207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="7"/>
+      <c r="B208" s="6"/>
       <c r="E208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="7"/>
+      <c r="B209" s="6"/>
       <c r="E209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="7"/>
+      <c r="B210" s="6"/>
       <c r="E210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="7"/>
+      <c r="B211" s="6"/>
       <c r="E211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="7"/>
+      <c r="B212" s="6"/>
       <c r="E212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="7"/>
+      <c r="B213" s="6"/>
       <c r="E213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="7"/>
+      <c r="B214" s="6"/>
       <c r="E214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="7"/>
+      <c r="B215" s="6"/>
       <c r="E215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="7"/>
+      <c r="B216" s="6"/>
       <c r="E216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="7"/>
+      <c r="B217" s="6"/>
       <c r="E217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="7"/>
+      <c r="B218" s="6"/>
       <c r="E218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="7"/>
+      <c r="B219" s="6"/>
       <c r="E219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="7"/>
+      <c r="B220" s="6"/>
       <c r="E220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="7"/>
+      <c r="B221" s="6"/>
       <c r="E221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="7"/>
+      <c r="B222" s="6"/>
       <c r="E222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="7"/>
+      <c r="B223" s="6"/>
       <c r="E223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="7"/>
+      <c r="B224" s="6"/>
       <c r="E224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="7"/>
+      <c r="B225" s="6"/>
       <c r="E225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="7"/>
+      <c r="B226" s="6"/>
       <c r="E226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="7"/>
+      <c r="B227" s="6"/>
       <c r="E227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="7"/>
+      <c r="B228" s="6"/>
       <c r="E228" s="8"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="7"/>
+      <c r="B229" s="6"/>
       <c r="E229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="7"/>
+      <c r="B230" s="6"/>
       <c r="E230" s="8"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="7"/>
+      <c r="B231" s="6"/>
       <c r="E231" s="8"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="7"/>
+      <c r="B232" s="6"/>
       <c r="E232" s="8"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="7"/>
+      <c r="B233" s="6"/>
       <c r="E233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="7"/>
+      <c r="B234" s="6"/>
       <c r="E234" s="8"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="7"/>
+      <c r="B235" s="6"/>
       <c r="E235" s="8"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="7"/>
+      <c r="B236" s="6"/>
       <c r="E236" s="8"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="7"/>
+      <c r="B237" s="6"/>
       <c r="E237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="7"/>
+      <c r="B238" s="6"/>
       <c r="E238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="7"/>
+      <c r="B239" s="6"/>
       <c r="E239" s="8"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="7"/>
+      <c r="B240" s="6"/>
       <c r="E240" s="8"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="7"/>
+      <c r="B241" s="6"/>
       <c r="E241" s="8"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="7"/>
+      <c r="B242" s="6"/>
       <c r="E242" s="8"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="7"/>
+      <c r="B243" s="6"/>
       <c r="E243" s="8"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="7"/>
+      <c r="B244" s="6"/>
       <c r="E244" s="8"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="7"/>
+      <c r="B245" s="6"/>
       <c r="E245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="7"/>
+      <c r="B246" s="6"/>
       <c r="E246" s="8"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="7"/>
+      <c r="B247" s="6"/>
       <c r="E247" s="8"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="7"/>
+      <c r="B248" s="6"/>
       <c r="E248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="7"/>
+      <c r="B249" s="6"/>
       <c r="E249" s="8"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="7"/>
+      <c r="B250" s="6"/>
       <c r="E250" s="8"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="7"/>
+      <c r="B251" s="6"/>
       <c r="E251" s="8"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="7"/>
+      <c r="B252" s="6"/>
       <c r="E252" s="8"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="7"/>
+      <c r="B253" s="6"/>
       <c r="E253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="7"/>
+      <c r="B254" s="6"/>
       <c r="E254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="7"/>
+      <c r="B255" s="6"/>
       <c r="E255" s="8"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="7"/>
+      <c r="B256" s="6"/>
       <c r="E256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="7"/>
+      <c r="B257" s="6"/>
       <c r="E257" s="8"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="7"/>
+      <c r="B258" s="6"/>
       <c r="E258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="7"/>
+      <c r="B259" s="6"/>
       <c r="E259" s="8"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="7"/>
+      <c r="B260" s="6"/>
       <c r="E260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="7"/>
+      <c r="B261" s="6"/>
       <c r="E261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="7"/>
+      <c r="B262" s="6"/>
       <c r="E262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="7"/>
+      <c r="B263" s="6"/>
       <c r="E263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="7"/>
+      <c r="B264" s="6"/>
       <c r="E264" s="8"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="7"/>
+      <c r="B265" s="6"/>
       <c r="E265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="7"/>
+      <c r="B266" s="6"/>
       <c r="E266" s="8"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="7"/>
+      <c r="B267" s="6"/>
       <c r="E267" s="8"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="7"/>
+      <c r="B268" s="6"/>
       <c r="E268" s="8"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="7"/>
+      <c r="B269" s="6"/>
       <c r="E269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="7"/>
+      <c r="B270" s="6"/>
       <c r="E270" s="8"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="7"/>
+      <c r="B271" s="6"/>
       <c r="E271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="7"/>
+      <c r="B272" s="6"/>
       <c r="E272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="7"/>
+      <c r="B273" s="6"/>
       <c r="E273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="7"/>
+      <c r="B274" s="6"/>
       <c r="E274" s="8"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="7"/>
+      <c r="B275" s="6"/>
       <c r="E275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="7"/>
+      <c r="B276" s="6"/>
       <c r="E276" s="8"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="7"/>
+      <c r="B277" s="6"/>
       <c r="E277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="7"/>
+      <c r="B278" s="6"/>
       <c r="E278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="7"/>
+      <c r="B279" s="6"/>
       <c r="E279" s="8"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="7"/>
+      <c r="B280" s="6"/>
       <c r="E280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="7"/>
+      <c r="B281" s="6"/>
       <c r="E281" s="8"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="7"/>
+      <c r="B282" s="6"/>
       <c r="E282" s="8"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="7"/>
+      <c r="B283" s="6"/>
       <c r="E283" s="8"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="7"/>
+      <c r="B284" s="6"/>
       <c r="E284" s="8"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="7"/>
+      <c r="B285" s="6"/>
       <c r="E285" s="8"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="7"/>
+      <c r="B286" s="6"/>
       <c r="E286" s="8"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="7"/>
+      <c r="B287" s="6"/>
       <c r="E287" s="8"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="7"/>
+      <c r="B288" s="6"/>
       <c r="E288" s="8"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="7"/>
+      <c r="B289" s="6"/>
       <c r="E289" s="8"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="7"/>
+      <c r="B290" s="6"/>
       <c r="E290" s="8"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="7"/>
+      <c r="B291" s="6"/>
       <c r="E291" s="8"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="7"/>
+      <c r="B292" s="6"/>
       <c r="E292" s="8"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="7"/>
+      <c r="B293" s="6"/>
       <c r="E293" s="8"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="7"/>
+      <c r="B294" s="6"/>
       <c r="E294" s="8"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="7"/>
+      <c r="B295" s="6"/>
       <c r="E295" s="8"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="7"/>
+      <c r="B296" s="6"/>
       <c r="E296" s="8"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="7"/>
+      <c r="B297" s="6"/>
       <c r="E297" s="8"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="7"/>
+      <c r="B298" s="6"/>
       <c r="E298" s="8"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="7"/>
+      <c r="B299" s="6"/>
       <c r="E299" s="8"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="7"/>
+      <c r="B300" s="6"/>
       <c r="E300" s="8"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="7"/>
+      <c r="B301" s="6"/>
       <c r="E301" s="8"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="7"/>
+      <c r="B302" s="6"/>
       <c r="E302" s="8"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="7"/>
+      <c r="B303" s="6"/>
       <c r="E303" s="8"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="7"/>
+      <c r="B304" s="6"/>
       <c r="E304" s="8"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="7"/>
+      <c r="B305" s="6"/>
       <c r="E305" s="8"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="7"/>
+      <c r="B306" s="6"/>
       <c r="E306" s="8"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="7"/>
+      <c r="B307" s="6"/>
       <c r="E307" s="8"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="7"/>
+      <c r="B308" s="6"/>
       <c r="E308" s="8"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="7"/>
+      <c r="B309" s="6"/>
       <c r="E309" s="8"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="7"/>
+      <c r="B310" s="6"/>
       <c r="E310" s="8"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="7"/>
+      <c r="B311" s="6"/>
       <c r="E311" s="8"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="7"/>
+      <c r="B312" s="6"/>
       <c r="E312" s="8"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="7"/>
+      <c r="B313" s="6"/>
       <c r="E313" s="8"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="7"/>
+      <c r="B314" s="6"/>
       <c r="E314" s="8"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="7"/>
+      <c r="B315" s="6"/>
       <c r="E315" s="8"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="7"/>
+      <c r="B316" s="6"/>
       <c r="E316" s="8"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="7"/>
+      <c r="B317" s="6"/>
       <c r="E317" s="8"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="7"/>
+      <c r="B318" s="6"/>
       <c r="E318" s="8"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="7"/>
+      <c r="B319" s="6"/>
       <c r="E319" s="8"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="7"/>
+      <c r="B320" s="6"/>
       <c r="E320" s="8"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="7"/>
+      <c r="B321" s="6"/>
       <c r="E321" s="8"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="7"/>
+      <c r="B322" s="6"/>
       <c r="E322" s="8"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="7"/>
+      <c r="B323" s="6"/>
       <c r="E323" s="8"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="7"/>
+      <c r="B324" s="6"/>
       <c r="E324" s="8"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="7"/>
+      <c r="B325" s="6"/>
       <c r="E325" s="8"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="7"/>
+      <c r="B326" s="6"/>
       <c r="E326" s="8"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="7"/>
+      <c r="B327" s="6"/>
       <c r="E327" s="8"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="7"/>
+      <c r="B328" s="6"/>
       <c r="E328" s="8"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="7"/>
+      <c r="B329" s="6"/>
       <c r="E329" s="8"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="7"/>
+      <c r="B330" s="6"/>
       <c r="E330" s="8"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="7"/>
+      <c r="B331" s="6"/>
       <c r="E331" s="8"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="7"/>
+      <c r="B332" s="6"/>
       <c r="E332" s="8"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="7"/>
+      <c r="B333" s="6"/>
       <c r="E333" s="8"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="7"/>
+      <c r="B334" s="6"/>
       <c r="E334" s="8"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="7"/>
+      <c r="B335" s="6"/>
       <c r="E335" s="8"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B336" s="7"/>
+      <c r="B336" s="6"/>
       <c r="E336" s="8"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B337" s="7"/>
+      <c r="B337" s="6"/>
       <c r="E337" s="8"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="7"/>
+      <c r="B338" s="6"/>
       <c r="E338" s="8"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B339" s="7"/>
+      <c r="B339" s="6"/>
       <c r="E339" s="8"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B340" s="7"/>
+      <c r="B340" s="6"/>
       <c r="E340" s="8"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B341" s="7"/>
+      <c r="B341" s="6"/>
       <c r="E341" s="8"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="7"/>
+      <c r="B342" s="6"/>
       <c r="E342" s="8"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="7"/>
+      <c r="B343" s="6"/>
       <c r="E343" s="8"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B344" s="7"/>
+      <c r="B344" s="6"/>
       <c r="E344" s="8"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B345" s="7"/>
+      <c r="B345" s="6"/>
       <c r="E345" s="8"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="E346" s="8"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="E347" s="8"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B348" s="7"/>
+      <c r="B348" s="6"/>
       <c r="E348" s="8"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B349" s="7"/>
+      <c r="B349" s="6"/>
       <c r="E349" s="8"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B350" s="7"/>
+      <c r="B350" s="6"/>
       <c r="E350" s="8"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B351" s="7"/>
+      <c r="B351" s="6"/>
       <c r="E351" s="8"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B352" s="7"/>
+      <c r="B352" s="6"/>
       <c r="E352" s="8"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B353" s="7"/>
+      <c r="B353" s="6"/>
       <c r="E353" s="8"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="7"/>
+      <c r="B354" s="6"/>
       <c r="E354" s="8"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="7"/>
+      <c r="B355" s="6"/>
       <c r="E355" s="8"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B356" s="7"/>
+      <c r="B356" s="6"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B357" s="7"/>
+      <c r="B357" s="6"/>
       <c r="E357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B358" s="7"/>
+      <c r="B358" s="6"/>
       <c r="E358" s="8"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B359" s="7"/>
+      <c r="B359" s="6"/>
       <c r="E359" s="8"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B360" s="7"/>
+      <c r="B360" s="6"/>
       <c r="E360" s="8"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B361" s="7"/>
+      <c r="B361" s="6"/>
       <c r="E361" s="8"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B362" s="7"/>
+      <c r="B362" s="6"/>
       <c r="E362" s="8"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B363" s="7"/>
+      <c r="B363" s="6"/>
       <c r="E363" s="8"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B364" s="7"/>
+      <c r="B364" s="6"/>
       <c r="E364" s="8"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B365" s="7"/>
+      <c r="B365" s="6"/>
       <c r="E365" s="8"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B366" s="7"/>
+      <c r="B366" s="6"/>
       <c r="E366" s="8"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B367" s="7"/>
+      <c r="B367" s="6"/>
       <c r="E367" s="8"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B368" s="7"/>
+      <c r="B368" s="6"/>
       <c r="E368" s="8"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B369" s="7"/>
+      <c r="B369" s="6"/>
       <c r="E369" s="8"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B370" s="7"/>
+      <c r="B370" s="6"/>
       <c r="E370" s="8"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B371" s="7"/>
+      <c r="B371" s="6"/>
       <c r="E371" s="8"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B372" s="7"/>
+      <c r="B372" s="6"/>
       <c r="E372" s="8"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B373" s="7"/>
+      <c r="B373" s="6"/>
       <c r="E373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B374" s="7"/>
+      <c r="B374" s="6"/>
       <c r="E374" s="8"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B375" s="7"/>
+      <c r="B375" s="6"/>
       <c r="E375" s="8"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B376" s="7"/>
+      <c r="B376" s="6"/>
       <c r="E376" s="8"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B377" s="7"/>
+      <c r="B377" s="6"/>
       <c r="E377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B378" s="7"/>
+      <c r="B378" s="6"/>
       <c r="E378" s="8"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B379" s="7"/>
+      <c r="B379" s="6"/>
       <c r="E379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="E380" s="8"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="E381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B382" s="7"/>
+      <c r="B382" s="6"/>
       <c r="E382" s="8"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B383" s="7"/>
+      <c r="B383" s="6"/>
       <c r="E383" s="8"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B384" s="7"/>
+      <c r="B384" s="6"/>
       <c r="E384" s="8"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B385" s="7"/>
+      <c r="B385" s="6"/>
       <c r="E385" s="8"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B386" s="7"/>
+      <c r="B386" s="6"/>
       <c r="E386" s="8"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B387" s="7"/>
+      <c r="B387" s="6"/>
       <c r="E387" s="8"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B388" s="7"/>
+      <c r="B388" s="6"/>
       <c r="E388" s="8"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B389" s="7"/>
+      <c r="B389" s="6"/>
       <c r="E389" s="8"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B390" s="7"/>
+      <c r="B390" s="6"/>
       <c r="E390" s="8"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B391" s="7"/>
+      <c r="B391" s="6"/>
       <c r="E391" s="8"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B392" s="7"/>
+      <c r="B392" s="6"/>
       <c r="E392" s="8"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
       <c r="E393" s="8"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
       <c r="E394" s="8"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B395" s="7"/>
+      <c r="B395" s="6"/>
       <c r="E395" s="8"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B396" s="7"/>
+      <c r="B396" s="6"/>
       <c r="E396" s="8"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B397" s="7"/>
+      <c r="B397" s="6"/>
       <c r="E397" s="8"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B398" s="7"/>
+      <c r="B398" s="6"/>
       <c r="E398" s="8"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B399" s="7"/>
+      <c r="B399" s="6"/>
       <c r="E399" s="8"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="7"/>
+      <c r="B400" s="6"/>
       <c r="E400" s="8"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="7"/>
+      <c r="B401" s="6"/>
       <c r="E401" s="8"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B402" s="7"/>
+      <c r="B402" s="6"/>
       <c r="E402" s="8"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B403" s="7"/>
+      <c r="B403" s="6"/>
       <c r="E403" s="8"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B404" s="7"/>
+      <c r="B404" s="6"/>
       <c r="E404" s="8"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B405" s="7"/>
+      <c r="B405" s="6"/>
       <c r="E405" s="8"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B406" s="7"/>
+      <c r="B406" s="6"/>
       <c r="E406" s="8"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B407" s="7"/>
+      <c r="B407" s="6"/>
       <c r="E407" s="8"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="7"/>
+      <c r="B408" s="6"/>
       <c r="E408" s="8"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="7"/>
+      <c r="B409" s="6"/>
       <c r="E409" s="8"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="E410" s="8"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="E411" s="8"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="E412" s="8"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
       <c r="E413" s="8"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B414" s="7"/>
+      <c r="B414" s="6"/>
       <c r="E414" s="8"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="E415" s="8"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="E416" s="8"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="E417" s="8"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
       <c r="E418" s="8"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B419" s="7"/>
+      <c r="B419" s="6"/>
       <c r="E419" s="8"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
       <c r="E420" s="8"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="E421" s="8"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="E422" s="8"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
       <c r="E423" s="8"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
       <c r="E424" s="8"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B425" s="7"/>
+      <c r="B425" s="6"/>
       <c r="E425" s="8"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B426" s="7"/>
+      <c r="B426" s="6"/>
       <c r="E426" s="8"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="7"/>
+      <c r="B427" s="6"/>
       <c r="E427" s="8"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="E428" s="8"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="E429" s="8"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="E430" s="8"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B431" s="7"/>
+      <c r="B431" s="6"/>
       <c r="E431" s="8"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B432" s="7"/>
+      <c r="B432" s="6"/>
       <c r="E432" s="8"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
       <c r="E433" s="8"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B434" s="7"/>
+      <c r="B434" s="6"/>
       <c r="E434" s="8"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B435" s="7"/>
+      <c r="B435" s="6"/>
       <c r="E435" s="8"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B436" s="7"/>
+      <c r="B436" s="6"/>
       <c r="E436" s="8"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B437" s="7"/>
+      <c r="B437" s="6"/>
       <c r="E437" s="8"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B438" s="7"/>
+      <c r="B438" s="6"/>
       <c r="E438" s="8"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B439" s="7"/>
+      <c r="B439" s="6"/>
       <c r="E439" s="8"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B440" s="7"/>
+      <c r="B440" s="6"/>
       <c r="E440" s="8"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B441" s="7"/>
+      <c r="B441" s="6"/>
       <c r="E441" s="8"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B442" s="7"/>
+      <c r="B442" s="6"/>
       <c r="E442" s="8"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B443" s="7"/>
+      <c r="B443" s="6"/>
       <c r="E443" s="8"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B444" s="7"/>
+      <c r="B444" s="6"/>
       <c r="E444" s="8"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="7"/>
+      <c r="B445" s="6"/>
       <c r="E445" s="8"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B446" s="7"/>
+      <c r="B446" s="6"/>
       <c r="E446" s="8"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B447" s="7"/>
+      <c r="B447" s="6"/>
       <c r="E447" s="8"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B448" s="7"/>
+      <c r="B448" s="6"/>
       <c r="E448" s="8"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B449" s="7"/>
+      <c r="B449" s="6"/>
       <c r="E449" s="8"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B450" s="7"/>
+      <c r="B450" s="6"/>
       <c r="E450" s="8"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B451" s="7"/>
+      <c r="B451" s="6"/>
       <c r="E451" s="8"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B452" s="7"/>
+      <c r="B452" s="6"/>
       <c r="E452" s="8"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B453" s="7"/>
+      <c r="B453" s="6"/>
       <c r="E453" s="8"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="7"/>
+      <c r="B454" s="6"/>
       <c r="E454" s="8"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B455" s="7"/>
+      <c r="B455" s="6"/>
       <c r="E455" s="8"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B456" s="7"/>
+      <c r="B456" s="6"/>
       <c r="E456" s="8"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B457" s="7"/>
+      <c r="B457" s="6"/>
       <c r="E457" s="8"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B458" s="7"/>
+      <c r="B458" s="6"/>
       <c r="E458" s="8"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="7"/>
+      <c r="B459" s="6"/>
       <c r="E459" s="8"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B460" s="7"/>
+      <c r="B460" s="6"/>
       <c r="E460" s="8"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B461" s="7"/>
+      <c r="B461" s="6"/>
       <c r="E461" s="8"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B462" s="7"/>
+      <c r="B462" s="6"/>
       <c r="E462" s="8"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B463" s="7"/>
+      <c r="B463" s="6"/>
       <c r="E463" s="8"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B464" s="7"/>
+      <c r="B464" s="6"/>
       <c r="E464" s="8"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B465" s="7"/>
+      <c r="B465" s="6"/>
       <c r="E465" s="8"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B466" s="7"/>
+      <c r="B466" s="6"/>
       <c r="E466" s="8"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B467" s="7"/>
+      <c r="B467" s="6"/>
       <c r="E467" s="8"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B468" s="7"/>
+      <c r="B468" s="6"/>
       <c r="E468" s="8"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B469" s="7"/>
+      <c r="B469" s="6"/>
       <c r="E469" s="8"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="7"/>
+      <c r="B470" s="6"/>
       <c r="E470" s="8"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B471" s="7"/>
+      <c r="B471" s="6"/>
       <c r="E471" s="8"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B472" s="7"/>
+      <c r="B472" s="6"/>
       <c r="E472" s="8"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="7"/>
+      <c r="B473" s="6"/>
       <c r="E473" s="8"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B474" s="7"/>
+      <c r="B474" s="6"/>
       <c r="E474" s="8"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B475" s="7"/>
+      <c r="B475" s="6"/>
       <c r="E475" s="8"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B476" s="7"/>
+      <c r="B476" s="6"/>
       <c r="E476" s="8"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B477" s="7"/>
+      <c r="B477" s="6"/>
       <c r="E477" s="8"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B478" s="7"/>
+      <c r="B478" s="6"/>
       <c r="E478" s="8"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B479" s="7"/>
+      <c r="B479" s="6"/>
       <c r="E479" s="8"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B480" s="7"/>
+      <c r="B480" s="6"/>
       <c r="E480" s="8"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B481" s="7"/>
+      <c r="B481" s="6"/>
       <c r="E481" s="8"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B482" s="7"/>
+      <c r="B482" s="6"/>
       <c r="E482" s="8"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B483" s="7"/>
+      <c r="B483" s="6"/>
       <c r="E483" s="8"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B484" s="7"/>
+      <c r="B484" s="6"/>
       <c r="E484" s="8"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B485" s="7"/>
+      <c r="B485" s="6"/>
       <c r="E485" s="8"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B486" s="7"/>
+      <c r="B486" s="6"/>
       <c r="E486" s="8"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B487" s="7"/>
+      <c r="B487" s="6"/>
       <c r="E487" s="8"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B488" s="7"/>
+      <c r="B488" s="6"/>
       <c r="E488" s="8"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B489" s="7"/>
+      <c r="B489" s="6"/>
       <c r="E489" s="8"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B490" s="7"/>
+      <c r="B490" s="6"/>
       <c r="E490" s="8"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B491" s="7"/>
+      <c r="B491" s="6"/>
       <c r="E491" s="8"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B492" s="7"/>
+      <c r="B492" s="6"/>
       <c r="E492" s="8"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B493" s="7"/>
+      <c r="B493" s="6"/>
       <c r="E493" s="8"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B494" s="7"/>
+      <c r="B494" s="6"/>
       <c r="E494" s="8"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B495" s="7"/>
+      <c r="B495" s="6"/>
       <c r="E495" s="8"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="7"/>
+      <c r="B496" s="6"/>
       <c r="E496" s="8"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B497" s="7"/>
+      <c r="B497" s="6"/>
       <c r="E497" s="8"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B498" s="7"/>
+      <c r="B498" s="6"/>
       <c r="E498" s="8"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B499" s="7"/>
+      <c r="B499" s="6"/>
       <c r="E499" s="8"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="7"/>
+      <c r="B500" s="6"/>
       <c r="E500" s="8"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="7"/>
+      <c r="B501" s="6"/>
       <c r="E501" s="8"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B502" s="7"/>
+      <c r="B502" s="6"/>
       <c r="E502" s="8"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B503" s="7"/>
+      <c r="B503" s="6"/>
       <c r="E503" s="8"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B504" s="7"/>
+      <c r="B504" s="6"/>
       <c r="E504" s="8"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B505" s="7"/>
+      <c r="B505" s="6"/>
       <c r="E505" s="8"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B506" s="7"/>
+      <c r="B506" s="6"/>
       <c r="E506" s="8"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B507" s="7"/>
+      <c r="B507" s="6"/>
       <c r="E507" s="8"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B508" s="7"/>
+      <c r="B508" s="6"/>
       <c r="E508" s="8"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B509" s="7"/>
+      <c r="B509" s="6"/>
       <c r="E509" s="8"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="7"/>
+      <c r="B510" s="6"/>
       <c r="E510" s="8"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B511" s="7"/>
+      <c r="B511" s="6"/>
       <c r="E511" s="8"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B512" s="7"/>
+      <c r="B512" s="6"/>
       <c r="E512" s="8"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B513" s="7"/>
+      <c r="B513" s="6"/>
       <c r="E513" s="8"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="7"/>
+      <c r="B514" s="6"/>
       <c r="E514" s="8"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="7"/>
+      <c r="B515" s="6"/>
       <c r="E515" s="8"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B516" s="7"/>
+      <c r="B516" s="6"/>
       <c r="E516" s="8"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="7"/>
+      <c r="B517" s="6"/>
       <c r="E517" s="8"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="7"/>
+      <c r="B518" s="6"/>
       <c r="E518" s="8"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B519" s="7"/>
+      <c r="B519" s="6"/>
       <c r="E519" s="8"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="7"/>
+      <c r="B520" s="6"/>
       <c r="E520" s="8"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="7"/>
+      <c r="B521" s="6"/>
       <c r="E521" s="8"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B522" s="7"/>
+      <c r="B522" s="6"/>
       <c r="E522" s="8"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="7"/>
+      <c r="B523" s="6"/>
       <c r="E523" s="8"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="7"/>
+      <c r="B524" s="6"/>
       <c r="E524" s="8"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B525" s="7"/>
+      <c r="B525" s="6"/>
       <c r="E525" s="8"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="7"/>
+      <c r="B526" s="6"/>
       <c r="E526" s="8"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="7"/>
+      <c r="B527" s="6"/>
       <c r="E527" s="8"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B528" s="7"/>
+      <c r="B528" s="6"/>
       <c r="E528" s="8"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B529" s="7"/>
+      <c r="B529" s="6"/>
       <c r="E529" s="8"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B530" s="7"/>
+      <c r="B530" s="6"/>
       <c r="E530" s="8"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B531" s="7"/>
+      <c r="B531" s="6"/>
       <c r="E531" s="8"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B532" s="7"/>
+      <c r="B532" s="6"/>
       <c r="E532" s="8"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B533" s="7"/>
+      <c r="B533" s="6"/>
       <c r="E533" s="8"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B534" s="7"/>
+      <c r="B534" s="6"/>
       <c r="E534" s="8"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B535" s="7"/>
+      <c r="B535" s="6"/>
       <c r="E535" s="8"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B536" s="7"/>
+      <c r="B536" s="6"/>
       <c r="E536" s="8"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B537" s="7"/>
+      <c r="B537" s="6"/>
       <c r="E537" s="8"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B538" s="7"/>
+      <c r="B538" s="6"/>
       <c r="E538" s="8"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B539" s="7"/>
+      <c r="B539" s="6"/>
       <c r="E539" s="8"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B540" s="7"/>
+      <c r="B540" s="6"/>
       <c r="E540" s="8"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B541" s="7"/>
+      <c r="B541" s="6"/>
       <c r="E541" s="8"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B542" s="7"/>
+      <c r="B542" s="6"/>
       <c r="E542" s="8"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B543" s="7"/>
+      <c r="B543" s="6"/>
       <c r="E543" s="8"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B544" s="7"/>
+      <c r="B544" s="6"/>
       <c r="E544" s="8"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B545" s="7"/>
+      <c r="B545" s="6"/>
       <c r="E545" s="8"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B546" s="7"/>
+      <c r="B546" s="6"/>
       <c r="E546" s="8"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="7"/>
+      <c r="B547" s="6"/>
       <c r="E547" s="8"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="7"/>
+      <c r="B548" s="6"/>
       <c r="E548" s="8"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B549" s="7"/>
+      <c r="B549" s="6"/>
       <c r="E549" s="8"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B550" s="7"/>
+      <c r="B550" s="6"/>
       <c r="E550" s="8"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B551" s="7"/>
+      <c r="B551" s="6"/>
       <c r="E551" s="8"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B552" s="7"/>
+      <c r="B552" s="6"/>
       <c r="E552" s="8"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="7"/>
+      <c r="B553" s="6"/>
       <c r="E553" s="8"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B554" s="7"/>
+      <c r="B554" s="6"/>
       <c r="E554" s="8"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B555" s="7"/>
+      <c r="B555" s="6"/>
       <c r="E555" s="8"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B556" s="7"/>
+      <c r="B556" s="6"/>
       <c r="E556" s="8"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B557" s="7"/>
+      <c r="B557" s="6"/>
       <c r="E557" s="8"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B558" s="7"/>
+      <c r="B558" s="6"/>
       <c r="E558" s="8"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B559" s="7"/>
+      <c r="B559" s="6"/>
       <c r="E559" s="8"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B560" s="7"/>
+      <c r="B560" s="6"/>
       <c r="E560" s="8"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B561" s="7"/>
+      <c r="B561" s="6"/>
       <c r="E561" s="8"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B562" s="7"/>
+      <c r="B562" s="6"/>
       <c r="E562" s="8"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B563" s="7"/>
+      <c r="B563" s="6"/>
       <c r="E563" s="8"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B564" s="7"/>
+      <c r="B564" s="6"/>
       <c r="E564" s="8"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B565" s="7"/>
+      <c r="B565" s="6"/>
       <c r="E565" s="8"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B566" s="7"/>
+      <c r="B566" s="6"/>
       <c r="E566" s="8"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B567" s="7"/>
+      <c r="B567" s="6"/>
       <c r="E567" s="8"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B568" s="7"/>
+      <c r="B568" s="6"/>
       <c r="E568" s="8"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B569" s="7"/>
+      <c r="B569" s="6"/>
       <c r="E569" s="8"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B570" s="7"/>
+      <c r="B570" s="6"/>
       <c r="E570" s="8"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B571" s="7"/>
+      <c r="B571" s="6"/>
       <c r="E571" s="8"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B572" s="7"/>
+      <c r="B572" s="6"/>
       <c r="E572" s="8"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B573" s="7"/>
+      <c r="B573" s="6"/>
       <c r="E573" s="8"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B574" s="7"/>
+      <c r="B574" s="6"/>
       <c r="E574" s="8"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B575" s="7"/>
+      <c r="B575" s="6"/>
       <c r="E575" s="8"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B576" s="7"/>
+      <c r="B576" s="6"/>
       <c r="E576" s="8"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B577" s="7"/>
+      <c r="B577" s="6"/>
       <c r="E577" s="8"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B578" s="7"/>
+      <c r="B578" s="6"/>
       <c r="E578" s="8"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B579" s="7"/>
+      <c r="B579" s="6"/>
       <c r="E579" s="8"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B580" s="7"/>
+      <c r="B580" s="6"/>
       <c r="E580" s="8"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B581" s="7"/>
+      <c r="B581" s="6"/>
       <c r="E581" s="8"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B582" s="7"/>
+      <c r="B582" s="6"/>
       <c r="E582" s="8"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B583" s="7"/>
+      <c r="B583" s="6"/>
       <c r="E583" s="8"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B584" s="7"/>
+      <c r="B584" s="6"/>
       <c r="E584" s="8"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B585" s="7"/>
+      <c r="B585" s="6"/>
       <c r="E585" s="8"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B586" s="7"/>
+      <c r="B586" s="6"/>
       <c r="E586" s="8"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B587" s="7"/>
+      <c r="B587" s="6"/>
       <c r="E587" s="8"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B588" s="7"/>
+      <c r="B588" s="6"/>
       <c r="E588" s="8"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B589" s="7"/>
+      <c r="B589" s="6"/>
       <c r="E589" s="8"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B590" s="7"/>
+      <c r="B590" s="6"/>
       <c r="E590" s="8"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B591" s="7"/>
+      <c r="B591" s="6"/>
       <c r="E591" s="8"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B592" s="7"/>
+      <c r="B592" s="6"/>
       <c r="E592" s="8"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B593" s="7"/>
+      <c r="B593" s="6"/>
       <c r="E593" s="8"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B594" s="7"/>
+      <c r="B594" s="6"/>
       <c r="E594" s="8"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B595" s="7"/>
+      <c r="B595" s="6"/>
       <c r="E595" s="8"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B596" s="7"/>
+      <c r="B596" s="6"/>
       <c r="E596" s="8"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B597" s="7"/>
+      <c r="B597" s="6"/>
       <c r="E597" s="8"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B598" s="7"/>
+      <c r="B598" s="6"/>
       <c r="E598" s="8"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B599" s="7"/>
+      <c r="B599" s="6"/>
       <c r="E599" s="8"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B600" s="7"/>
+      <c r="B600" s="6"/>
       <c r="E600" s="8"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B601" s="7"/>
+      <c r="B601" s="6"/>
       <c r="E601" s="8"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B602" s="7"/>
+      <c r="B602" s="6"/>
       <c r="E602" s="8"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B603" s="7"/>
+      <c r="B603" s="6"/>
       <c r="E603" s="8"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B604" s="7"/>
+      <c r="B604" s="6"/>
       <c r="E604" s="8"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B605" s="7"/>
+      <c r="B605" s="6"/>
       <c r="E605" s="8"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B606" s="7"/>
+      <c r="B606" s="6"/>
       <c r="E606" s="8"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B607" s="7"/>
+      <c r="B607" s="6"/>
       <c r="E607" s="8"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B608" s="7"/>
+      <c r="B608" s="6"/>
       <c r="E608" s="8"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B609" s="7"/>
+      <c r="B609" s="6"/>
       <c r="E609" s="8"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B610" s="7"/>
+      <c r="B610" s="6"/>
       <c r="E610" s="8"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B611" s="7"/>
+      <c r="B611" s="6"/>
       <c r="E611" s="8"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B612" s="7"/>
+      <c r="B612" s="6"/>
       <c r="E612" s="8"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B613" s="7"/>
+      <c r="B613" s="6"/>
       <c r="E613" s="8"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B614" s="7"/>
+      <c r="B614" s="6"/>
       <c r="E614" s="8"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B615" s="7"/>
+      <c r="B615" s="6"/>
       <c r="E615" s="8"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B616" s="7"/>
+      <c r="B616" s="6"/>
       <c r="E616" s="8"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B617" s="7"/>
+      <c r="B617" s="6"/>
       <c r="E617" s="8"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B618" s="7"/>
+      <c r="B618" s="6"/>
       <c r="E618" s="8"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B619" s="7"/>
+      <c r="B619" s="6"/>
       <c r="E619" s="8"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B620" s="7"/>
+      <c r="B620" s="6"/>
       <c r="E620" s="8"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B621" s="7"/>
+      <c r="B621" s="6"/>
       <c r="E621" s="8"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B622" s="7"/>
+      <c r="B622" s="6"/>
       <c r="E622" s="8"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B623" s="7"/>
+      <c r="B623" s="6"/>
       <c r="E623" s="8"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B624" s="7"/>
+      <c r="B624" s="6"/>
       <c r="E624" s="8"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B625" s="7"/>
+      <c r="B625" s="6"/>
       <c r="E625" s="8"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B626" s="7"/>
+      <c r="B626" s="6"/>
       <c r="E626" s="8"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B627" s="7"/>
+      <c r="B627" s="6"/>
       <c r="E627" s="8"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B628" s="7"/>
+      <c r="B628" s="6"/>
       <c r="E628" s="8"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B629" s="7"/>
+      <c r="B629" s="6"/>
       <c r="E629" s="8"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B630" s="7"/>
+      <c r="B630" s="6"/>
       <c r="E630" s="8"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B631" s="7"/>
+      <c r="B631" s="6"/>
       <c r="E631" s="8"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B632" s="7"/>
+      <c r="B632" s="6"/>
       <c r="E632" s="8"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B633" s="7"/>
+      <c r="B633" s="6"/>
       <c r="E633" s="8"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B634" s="7"/>
+      <c r="B634" s="6"/>
       <c r="E634" s="8"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B635" s="7"/>
+      <c r="B635" s="6"/>
       <c r="E635" s="8"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B636" s="7"/>
+      <c r="B636" s="6"/>
       <c r="E636" s="8"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B637" s="7"/>
+      <c r="B637" s="6"/>
       <c r="E637" s="8"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B638" s="7"/>
+      <c r="B638" s="6"/>
       <c r="E638" s="8"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B639" s="7"/>
+      <c r="B639" s="6"/>
       <c r="E639" s="8"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B640" s="7"/>
+      <c r="B640" s="6"/>
       <c r="E640" s="8"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B641" s="7"/>
+      <c r="B641" s="6"/>
       <c r="E641" s="8"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B642" s="7"/>
+      <c r="B642" s="6"/>
       <c r="E642" s="8"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B643" s="7"/>
+      <c r="B643" s="6"/>
       <c r="E643" s="8"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B644" s="7"/>
+      <c r="B644" s="6"/>
       <c r="E644" s="8"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B645" s="7"/>
+      <c r="B645" s="6"/>
       <c r="E645" s="8"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B646" s="7"/>
+      <c r="B646" s="6"/>
       <c r="E646" s="8"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B647" s="7"/>
+      <c r="B647" s="6"/>
       <c r="E647" s="8"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B648" s="7"/>
+      <c r="B648" s="6"/>
       <c r="E648" s="8"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B649" s="7"/>
+      <c r="B649" s="6"/>
       <c r="E649" s="8"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B650" s="7"/>
+      <c r="B650" s="6"/>
       <c r="E650" s="8"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B651" s="7"/>
+      <c r="B651" s="6"/>
       <c r="E651" s="8"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B652" s="7"/>
+      <c r="B652" s="6"/>
       <c r="E652" s="8"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B653" s="7"/>
+      <c r="B653" s="6"/>
       <c r="E653" s="8"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B654" s="7"/>
+      <c r="B654" s="6"/>
       <c r="E654" s="8"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B655" s="7"/>
+      <c r="B655" s="6"/>
       <c r="E655" s="8"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B656" s="7"/>
+      <c r="B656" s="6"/>
       <c r="E656" s="8"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B657" s="7"/>
+      <c r="B657" s="6"/>
       <c r="E657" s="8"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B658" s="7"/>
+      <c r="B658" s="6"/>
       <c r="E658" s="8"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B659" s="7"/>
+      <c r="B659" s="6"/>
       <c r="E659" s="8"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B660" s="7"/>
+      <c r="B660" s="6"/>
       <c r="E660" s="8"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B661" s="7"/>
+      <c r="B661" s="6"/>
       <c r="E661" s="8"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B662" s="7"/>
+      <c r="B662" s="6"/>
       <c r="E662" s="8"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B663" s="7"/>
+      <c r="B663" s="6"/>
       <c r="E663" s="8"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B664" s="7"/>
+      <c r="B664" s="6"/>
       <c r="E664" s="8"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B665" s="7"/>
+      <c r="B665" s="6"/>
       <c r="E665" s="8"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B666" s="7"/>
+      <c r="B666" s="6"/>
       <c r="E666" s="8"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B667" s="7"/>
+      <c r="B667" s="6"/>
       <c r="E667" s="8"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B668" s="7"/>
+      <c r="B668" s="6"/>
       <c r="E668" s="8"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B669" s="7"/>
+      <c r="B669" s="6"/>
       <c r="E669" s="8"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B670" s="7"/>
+      <c r="B670" s="6"/>
       <c r="E670" s="8"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B671" s="7"/>
+      <c r="B671" s="6"/>
       <c r="E671" s="8"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B672" s="7"/>
+      <c r="B672" s="6"/>
       <c r="E672" s="8"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B673" s="7"/>
+      <c r="B673" s="6"/>
       <c r="E673" s="8"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B674" s="7"/>
+      <c r="B674" s="6"/>
       <c r="E674" s="8"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B675" s="7"/>
+      <c r="B675" s="6"/>
       <c r="E675" s="8"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B676" s="7"/>
+      <c r="B676" s="6"/>
       <c r="E676" s="8"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B677" s="7"/>
+      <c r="B677" s="6"/>
       <c r="E677" s="8"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B678" s="7"/>
+      <c r="B678" s="6"/>
       <c r="E678" s="8"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B679" s="7"/>
+      <c r="B679" s="6"/>
       <c r="E679" s="8"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B680" s="7"/>
+      <c r="B680" s="6"/>
       <c r="E680" s="8"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B681" s="7"/>
+      <c r="B681" s="6"/>
       <c r="E681" s="8"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B682" s="7"/>
+      <c r="B682" s="6"/>
       <c r="E682" s="8"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B683" s="7"/>
+      <c r="B683" s="6"/>
       <c r="E683" s="8"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B684" s="7"/>
+      <c r="B684" s="6"/>
       <c r="E684" s="8"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B685" s="7"/>
+      <c r="B685" s="6"/>
       <c r="E685" s="8"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B686" s="7"/>
+      <c r="B686" s="6"/>
       <c r="E686" s="8"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B687" s="7"/>
+      <c r="B687" s="6"/>
       <c r="E687" s="8"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B688" s="7"/>
+      <c r="B688" s="6"/>
       <c r="E688" s="8"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B689" s="7"/>
+      <c r="B689" s="6"/>
       <c r="E689" s="8"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B690" s="7"/>
+      <c r="B690" s="6"/>
       <c r="E690" s="8"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B691" s="7"/>
+      <c r="B691" s="6"/>
       <c r="E691" s="8"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B692" s="7"/>
+      <c r="B692" s="6"/>
       <c r="E692" s="8"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="7"/>
+      <c r="B693" s="6"/>
       <c r="E693" s="8"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B694" s="7"/>
+      <c r="B694" s="6"/>
       <c r="E694" s="8"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="7"/>
+      <c r="B695" s="6"/>
       <c r="E695" s="8"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B696" s="7"/>
+      <c r="B696" s="6"/>
       <c r="E696" s="8"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B697" s="7"/>
+      <c r="B697" s="6"/>
       <c r="E697" s="8"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B698" s="7"/>
+      <c r="B698" s="6"/>
       <c r="E698" s="8"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B699" s="7"/>
+      <c r="B699" s="6"/>
       <c r="E699" s="8"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B700" s="7"/>
+      <c r="B700" s="6"/>
       <c r="E700" s="8"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B701" s="7"/>
+      <c r="B701" s="6"/>
       <c r="E701" s="8"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B702" s="7"/>
+      <c r="B702" s="6"/>
       <c r="E702" s="8"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B703" s="7"/>
+      <c r="B703" s="6"/>
       <c r="E703" s="8"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B704" s="7"/>
+      <c r="B704" s="6"/>
       <c r="E704" s="8"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B705" s="7"/>
+      <c r="B705" s="6"/>
       <c r="E705" s="8"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B706" s="7"/>
+      <c r="B706" s="6"/>
       <c r="E706" s="8"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B707" s="7"/>
+      <c r="B707" s="6"/>
       <c r="E707" s="8"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B708" s="7"/>
+      <c r="B708" s="6"/>
       <c r="E708" s="8"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B709" s="7"/>
+      <c r="B709" s="6"/>
       <c r="E709" s="8"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B710" s="7"/>
+      <c r="B710" s="6"/>
       <c r="E710" s="8"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B711" s="7"/>
+      <c r="B711" s="6"/>
       <c r="E711" s="8"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B712" s="7"/>
+      <c r="B712" s="6"/>
       <c r="E712" s="8"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B713" s="7"/>
+      <c r="B713" s="6"/>
       <c r="E713" s="8"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B714" s="7"/>
+      <c r="B714" s="6"/>
       <c r="E714" s="8"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B715" s="7"/>
+      <c r="B715" s="6"/>
       <c r="E715" s="8"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B716" s="7"/>
+      <c r="B716" s="6"/>
       <c r="E716" s="8"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B717" s="7"/>
+      <c r="B717" s="6"/>
       <c r="E717" s="8"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B718" s="7"/>
+      <c r="B718" s="6"/>
       <c r="E718" s="8"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B719" s="7"/>
+      <c r="B719" s="6"/>
       <c r="E719" s="8"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B720" s="7"/>
+      <c r="B720" s="6"/>
       <c r="E720" s="8"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B721" s="7"/>
+      <c r="B721" s="6"/>
       <c r="E721" s="8"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B722" s="7"/>
+      <c r="B722" s="6"/>
       <c r="E722" s="8"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B723" s="7"/>
+      <c r="B723" s="6"/>
       <c r="E723" s="8"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B724" s="7"/>
+      <c r="B724" s="6"/>
       <c r="E724" s="8"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B725" s="7"/>
+      <c r="B725" s="6"/>
       <c r="E725" s="8"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B726" s="7"/>
+      <c r="B726" s="6"/>
       <c r="E726" s="8"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B727" s="7"/>
+      <c r="B727" s="6"/>
       <c r="E727" s="8"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B728" s="7"/>
+      <c r="B728" s="6"/>
       <c r="E728" s="8"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B729" s="7"/>
+      <c r="B729" s="6"/>
       <c r="E729" s="8"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B730" s="7"/>
+      <c r="B730" s="6"/>
       <c r="E730" s="8"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B731" s="7"/>
+      <c r="B731" s="6"/>
       <c r="E731" s="8"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B732" s="7"/>
+      <c r="B732" s="6"/>
       <c r="E732" s="8"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B733" s="7"/>
+      <c r="B733" s="6"/>
       <c r="E733" s="8"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B734" s="7"/>
+      <c r="B734" s="6"/>
       <c r="E734" s="8"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B735" s="7"/>
+      <c r="B735" s="6"/>
       <c r="E735" s="8"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B736" s="7"/>
+      <c r="B736" s="6"/>
       <c r="E736" s="8"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B737" s="7"/>
+      <c r="B737" s="6"/>
       <c r="E737" s="8"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B738" s="7"/>
+      <c r="B738" s="6"/>
       <c r="E738" s="8"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B739" s="7"/>
+      <c r="B739" s="6"/>
       <c r="E739" s="8"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B740" s="7"/>
+      <c r="B740" s="6"/>
       <c r="E740" s="8"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B741" s="7"/>
+      <c r="B741" s="6"/>
       <c r="E741" s="8"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B742" s="7"/>
+      <c r="B742" s="6"/>
       <c r="E742" s="8"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B743" s="7"/>
+      <c r="B743" s="6"/>
       <c r="E743" s="8"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B744" s="7"/>
+      <c r="B744" s="6"/>
       <c r="E744" s="8"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B745" s="7"/>
+      <c r="B745" s="6"/>
       <c r="E745" s="8"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B746" s="7"/>
+      <c r="B746" s="6"/>
       <c r="E746" s="8"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B747" s="7"/>
+      <c r="B747" s="6"/>
       <c r="E747" s="8"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B748" s="7"/>
+      <c r="B748" s="6"/>
       <c r="E748" s="8"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B749" s="7"/>
+      <c r="B749" s="6"/>
       <c r="E749" s="8"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B750" s="7"/>
+      <c r="B750" s="6"/>
       <c r="E750" s="8"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B751" s="7"/>
+      <c r="B751" s="6"/>
       <c r="E751" s="8"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B752" s="7"/>
+      <c r="B752" s="6"/>
       <c r="E752" s="8"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B753" s="7"/>
+      <c r="B753" s="6"/>
       <c r="E753" s="8"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B754" s="7"/>
+      <c r="B754" s="6"/>
       <c r="E754" s="8"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B755" s="7"/>
+      <c r="B755" s="6"/>
       <c r="E755" s="8"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B756" s="7"/>
+      <c r="B756" s="6"/>
       <c r="E756" s="8"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B757" s="7"/>
+      <c r="B757" s="6"/>
       <c r="E757" s="8"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B758" s="7"/>
+      <c r="B758" s="6"/>
       <c r="E758" s="8"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B759" s="7"/>
+      <c r="B759" s="6"/>
       <c r="E759" s="8"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B760" s="7"/>
+      <c r="B760" s="6"/>
       <c r="E760" s="8"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B761" s="7"/>
+      <c r="B761" s="6"/>
       <c r="E761" s="8"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B762" s="7"/>
+      <c r="B762" s="6"/>
       <c r="E762" s="8"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B763" s="7"/>
+      <c r="B763" s="6"/>
       <c r="E763" s="8"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B764" s="7"/>
+      <c r="B764" s="6"/>
       <c r="E764" s="8"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B765" s="7"/>
+      <c r="B765" s="6"/>
       <c r="E765" s="8"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B766" s="7"/>
+      <c r="B766" s="6"/>
       <c r="E766" s="8"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B767" s="7"/>
+      <c r="B767" s="6"/>
       <c r="E767" s="8"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B768" s="7"/>
+      <c r="B768" s="6"/>
       <c r="E768" s="8"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B769" s="7"/>
+      <c r="B769" s="6"/>
       <c r="E769" s="8"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B770" s="7"/>
+      <c r="B770" s="6"/>
       <c r="E770" s="8"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B771" s="7"/>
+      <c r="B771" s="6"/>
       <c r="E771" s="8"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B772" s="7"/>
+      <c r="B772" s="6"/>
       <c r="E772" s="8"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B773" s="7"/>
+      <c r="B773" s="6"/>
       <c r="E773" s="8"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B774" s="7"/>
+      <c r="B774" s="6"/>
       <c r="E774" s="8"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B775" s="7"/>
+      <c r="B775" s="6"/>
       <c r="E775" s="8"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B776" s="7"/>
+      <c r="B776" s="6"/>
       <c r="E776" s="8"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B777" s="7"/>
+      <c r="B777" s="6"/>
       <c r="E777" s="8"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B778" s="7"/>
+      <c r="B778" s="6"/>
       <c r="E778" s="8"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B779" s="7"/>
+      <c r="B779" s="6"/>
       <c r="E779" s="8"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B780" s="7"/>
+      <c r="B780" s="6"/>
       <c r="E780" s="8"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B781" s="7"/>
+      <c r="B781" s="6"/>
       <c r="E781" s="8"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B782" s="7"/>
+      <c r="B782" s="6"/>
       <c r="E782" s="8"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B783" s="7"/>
+      <c r="B783" s="6"/>
       <c r="E783" s="8"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B784" s="7"/>
+      <c r="B784" s="6"/>
       <c r="E784" s="8"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B785" s="7"/>
+      <c r="B785" s="6"/>
       <c r="E785" s="8"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B786" s="7"/>
+      <c r="B786" s="6"/>
       <c r="E786" s="8"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B787" s="7"/>
+      <c r="B787" s="6"/>
       <c r="E787" s="8"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B788" s="7"/>
+      <c r="B788" s="6"/>
       <c r="E788" s="8"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B789" s="7"/>
+      <c r="B789" s="6"/>
       <c r="E789" s="8"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B790" s="7"/>
+      <c r="B790" s="6"/>
       <c r="E790" s="8"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B791" s="7"/>
+      <c r="B791" s="6"/>
       <c r="E791" s="8"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B792" s="7"/>
+      <c r="B792" s="6"/>
       <c r="E792" s="8"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B793" s="7"/>
+      <c r="B793" s="6"/>
       <c r="E793" s="8"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B794" s="7"/>
+      <c r="B794" s="6"/>
       <c r="E794" s="8"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B795" s="7"/>
+      <c r="B795" s="6"/>
       <c r="E795" s="8"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B796" s="7"/>
+      <c r="B796" s="6"/>
       <c r="E796" s="8"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B797" s="7"/>
+      <c r="B797" s="6"/>
       <c r="E797" s="8"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B798" s="7"/>
+      <c r="B798" s="6"/>
       <c r="E798" s="8"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B799" s="7"/>
+      <c r="B799" s="6"/>
       <c r="E799" s="8"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B800" s="7"/>
+      <c r="B800" s="6"/>
       <c r="E800" s="8"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B801" s="7"/>
+      <c r="B801" s="6"/>
       <c r="E801" s="8"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B802" s="7"/>
+      <c r="B802" s="6"/>
       <c r="E802" s="8"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B803" s="7"/>
+      <c r="B803" s="6"/>
       <c r="E803" s="8"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B804" s="7"/>
+      <c r="B804" s="6"/>
       <c r="E804" s="8"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B805" s="7"/>
+      <c r="B805" s="6"/>
       <c r="E805" s="8"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B806" s="7"/>
+      <c r="B806" s="6"/>
       <c r="E806" s="8"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B807" s="7"/>
+      <c r="B807" s="6"/>
       <c r="E807" s="8"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B808" s="7"/>
+      <c r="B808" s="6"/>
       <c r="E808" s="8"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B809" s="7"/>
+      <c r="B809" s="6"/>
       <c r="E809" s="8"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B810" s="7"/>
+      <c r="B810" s="6"/>
       <c r="E810" s="8"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B811" s="7"/>
+      <c r="B811" s="6"/>
       <c r="E811" s="8"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B812" s="7"/>
+      <c r="B812" s="6"/>
       <c r="E812" s="8"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B813" s="7"/>
+      <c r="B813" s="6"/>
       <c r="E813" s="8"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B814" s="7"/>
+      <c r="B814" s="6"/>
       <c r="E814" s="8"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B815" s="7"/>
+      <c r="B815" s="6"/>
       <c r="E815" s="8"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B816" s="7"/>
+      <c r="B816" s="6"/>
       <c r="E816" s="8"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B817" s="7"/>
+      <c r="B817" s="6"/>
       <c r="E817" s="8"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B818" s="7"/>
+      <c r="B818" s="6"/>
       <c r="E818" s="8"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B819" s="7"/>
+      <c r="B819" s="6"/>
       <c r="E819" s="8"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B820" s="7"/>
+      <c r="B820" s="6"/>
       <c r="E820" s="8"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B821" s="7"/>
+      <c r="B821" s="6"/>
       <c r="E821" s="8"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B822" s="7"/>
+      <c r="B822" s="6"/>
       <c r="E822" s="8"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B823" s="7"/>
+      <c r="B823" s="6"/>
       <c r="E823" s="8"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B824" s="7"/>
+      <c r="B824" s="6"/>
       <c r="E824" s="8"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B825" s="7"/>
+      <c r="B825" s="6"/>
       <c r="E825" s="8"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B826" s="7"/>
+      <c r="B826" s="6"/>
       <c r="E826" s="8"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B827" s="7"/>
+      <c r="B827" s="6"/>
       <c r="E827" s="8"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B828" s="7"/>
+      <c r="B828" s="6"/>
       <c r="E828" s="8"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B829" s="7"/>
+      <c r="B829" s="6"/>
       <c r="E829" s="8"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B830" s="7"/>
+      <c r="B830" s="6"/>
       <c r="E830" s="8"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B831" s="7"/>
+      <c r="B831" s="6"/>
       <c r="E831" s="8"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B832" s="7"/>
+      <c r="B832" s="6"/>
       <c r="E832" s="8"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B833" s="7"/>
+      <c r="B833" s="6"/>
       <c r="E833" s="8"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B834" s="7"/>
+      <c r="B834" s="6"/>
       <c r="E834" s="8"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B835" s="7"/>
+      <c r="B835" s="6"/>
       <c r="E835" s="8"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B836" s="7"/>
+      <c r="B836" s="6"/>
       <c r="E836" s="8"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B837" s="7"/>
+      <c r="B837" s="6"/>
       <c r="E837" s="8"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B838" s="7"/>
+      <c r="B838" s="6"/>
       <c r="E838" s="8"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B839" s="7"/>
+      <c r="B839" s="6"/>
       <c r="E839" s="8"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B840" s="7"/>
+      <c r="B840" s="6"/>
       <c r="E840" s="8"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B841" s="7"/>
+      <c r="B841" s="6"/>
       <c r="E841" s="8"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B842" s="7"/>
+      <c r="B842" s="6"/>
       <c r="E842" s="8"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B843" s="7"/>
+      <c r="B843" s="6"/>
       <c r="E843" s="8"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B844" s="7"/>
+      <c r="B844" s="6"/>
       <c r="E844" s="8"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B845" s="7"/>
+      <c r="B845" s="6"/>
       <c r="E845" s="8"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B846" s="7"/>
+      <c r="B846" s="6"/>
       <c r="E846" s="8"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B847" s="7"/>
+      <c r="B847" s="6"/>
       <c r="E847" s="8"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B848" s="7"/>
+      <c r="B848" s="6"/>
       <c r="E848" s="8"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B849" s="7"/>
+      <c r="B849" s="6"/>
       <c r="E849" s="8"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B850" s="7"/>
+      <c r="B850" s="6"/>
       <c r="E850" s="8"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B851" s="7"/>
+      <c r="B851" s="6"/>
       <c r="E851" s="8"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B852" s="7"/>
+      <c r="B852" s="6"/>
       <c r="E852" s="8"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B853" s="7"/>
+      <c r="B853" s="6"/>
       <c r="E853" s="8"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B854" s="7"/>
+      <c r="B854" s="6"/>
       <c r="E854" s="8"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B855" s="7"/>
+      <c r="B855" s="6"/>
       <c r="E855" s="8"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B856" s="7"/>
+      <c r="B856" s="6"/>
       <c r="E856" s="8"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B857" s="7"/>
+      <c r="B857" s="6"/>
       <c r="E857" s="8"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B858" s="7"/>
+      <c r="B858" s="6"/>
       <c r="E858" s="8"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B859" s="7"/>
+      <c r="B859" s="6"/>
       <c r="E859" s="8"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B860" s="7"/>
+      <c r="B860" s="6"/>
       <c r="E860" s="8"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B861" s="7"/>
+      <c r="B861" s="6"/>
       <c r="E861" s="8"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B862" s="7"/>
+      <c r="B862" s="6"/>
       <c r="E862" s="8"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B863" s="7"/>
+      <c r="B863" s="6"/>
       <c r="E863" s="8"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B864" s="7"/>
+      <c r="B864" s="6"/>
       <c r="E864" s="8"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B865" s="7"/>
+      <c r="B865" s="6"/>
       <c r="E865" s="8"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B866" s="7"/>
+      <c r="B866" s="6"/>
       <c r="E866" s="8"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B867" s="7"/>
+      <c r="B867" s="6"/>
       <c r="E867" s="8"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B868" s="7"/>
+      <c r="B868" s="6"/>
       <c r="E868" s="8"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B869" s="7"/>
+      <c r="B869" s="6"/>
       <c r="E869" s="8"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B870" s="7"/>
+      <c r="B870" s="6"/>
       <c r="E870" s="8"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B871" s="7"/>
+      <c r="B871" s="6"/>
       <c r="E871" s="8"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B872" s="7"/>
+      <c r="B872" s="6"/>
       <c r="E872" s="8"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B873" s="7"/>
+      <c r="B873" s="6"/>
       <c r="E873" s="8"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B874" s="7"/>
+      <c r="B874" s="6"/>
       <c r="E874" s="8"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B875" s="7"/>
+      <c r="B875" s="6"/>
       <c r="E875" s="8"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B876" s="7"/>
+      <c r="B876" s="6"/>
       <c r="E876" s="8"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B877" s="7"/>
+      <c r="B877" s="6"/>
       <c r="E877" s="8"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B878" s="7"/>
+      <c r="B878" s="6"/>
       <c r="E878" s="8"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B879" s="7"/>
+      <c r="B879" s="6"/>
       <c r="E879" s="8"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B880" s="7"/>
+      <c r="B880" s="6"/>
       <c r="E880" s="8"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B881" s="7"/>
+      <c r="B881" s="6"/>
       <c r="E881" s="8"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B882" s="7"/>
+      <c r="B882" s="6"/>
       <c r="E882" s="8"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B883" s="7"/>
+      <c r="B883" s="6"/>
       <c r="E883" s="8"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B884" s="7"/>
+      <c r="B884" s="6"/>
       <c r="E884" s="8"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B885" s="7"/>
+      <c r="B885" s="6"/>
       <c r="E885" s="8"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B886" s="7"/>
+      <c r="B886" s="6"/>
       <c r="E886" s="8"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B887" s="7"/>
+      <c r="B887" s="6"/>
       <c r="E887" s="8"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B888" s="7"/>
+      <c r="B888" s="6"/>
       <c r="E888" s="8"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B889" s="7"/>
+      <c r="B889" s="6"/>
       <c r="E889" s="8"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B890" s="7"/>
+      <c r="B890" s="6"/>
       <c r="E890" s="8"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B891" s="7"/>
+      <c r="B891" s="6"/>
       <c r="E891" s="8"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B892" s="7"/>
+      <c r="B892" s="6"/>
       <c r="E892" s="8"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B893" s="7"/>
+      <c r="B893" s="6"/>
       <c r="E893" s="8"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B894" s="7"/>
+      <c r="B894" s="6"/>
       <c r="E894" s="8"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B895" s="7"/>
+      <c r="B895" s="6"/>
       <c r="E895" s="8"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B896" s="7"/>
+      <c r="B896" s="6"/>
       <c r="E896" s="8"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B897" s="7"/>
+      <c r="B897" s="6"/>
       <c r="E897" s="8"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B898" s="7"/>
+      <c r="B898" s="6"/>
       <c r="E898" s="8"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B899" s="7"/>
+      <c r="B899" s="6"/>
       <c r="E899" s="8"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B900" s="7"/>
+      <c r="B900" s="6"/>
       <c r="E900" s="8"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B901" s="7"/>
+      <c r="B901" s="6"/>
       <c r="E901" s="8"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B902" s="7"/>
+      <c r="B902" s="6"/>
       <c r="E902" s="8"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B903" s="7"/>
+      <c r="B903" s="6"/>
       <c r="E903" s="8"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B904" s="7"/>
+      <c r="B904" s="6"/>
       <c r="E904" s="8"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B905" s="7"/>
+      <c r="B905" s="6"/>
       <c r="E905" s="8"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B906" s="7"/>
+      <c r="B906" s="6"/>
       <c r="E906" s="8"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B907" s="7"/>
+      <c r="B907" s="6"/>
       <c r="E907" s="8"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B908" s="7"/>
+      <c r="B908" s="6"/>
       <c r="E908" s="8"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B909" s="7"/>
+      <c r="B909" s="6"/>
       <c r="E909" s="8"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B910" s="7"/>
+      <c r="B910" s="6"/>
       <c r="E910" s="8"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B911" s="7"/>
+      <c r="B911" s="6"/>
       <c r="E911" s="8"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B912" s="7"/>
+      <c r="B912" s="6"/>
       <c r="E912" s="8"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B913" s="7"/>
+      <c r="B913" s="6"/>
       <c r="E913" s="8"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B914" s="7"/>
+      <c r="B914" s="6"/>
       <c r="E914" s="8"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B915" s="7"/>
+      <c r="B915" s="6"/>
       <c r="E915" s="8"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B916" s="7"/>
+      <c r="B916" s="6"/>
       <c r="E916" s="8"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B917" s="7"/>
+      <c r="B917" s="6"/>
       <c r="E917" s="8"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B918" s="7"/>
+      <c r="B918" s="6"/>
       <c r="E918" s="8"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B919" s="7"/>
+      <c r="B919" s="6"/>
       <c r="E919" s="8"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B920" s="7"/>
+      <c r="B920" s="6"/>
       <c r="E920" s="8"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B921" s="7"/>
+      <c r="B921" s="6"/>
       <c r="E921" s="8"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B922" s="7"/>
+      <c r="B922" s="6"/>
       <c r="E922" s="8"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B923" s="7"/>
+      <c r="B923" s="6"/>
       <c r="E923" s="8"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B924" s="7"/>
+      <c r="B924" s="6"/>
       <c r="E924" s="8"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B925" s="7"/>
+      <c r="B925" s="6"/>
       <c r="E925" s="8"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B926" s="7"/>
+      <c r="B926" s="6"/>
       <c r="E926" s="8"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B927" s="7"/>
+      <c r="B927" s="6"/>
       <c r="E927" s="8"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B928" s="7"/>
+      <c r="B928" s="6"/>
       <c r="E928" s="8"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B929" s="7"/>
+      <c r="B929" s="6"/>
       <c r="E929" s="8"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B930" s="7"/>
+      <c r="B930" s="6"/>
       <c r="E930" s="8"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B931" s="7"/>
+      <c r="B931" s="6"/>
       <c r="E931" s="8"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B932" s="7"/>
+      <c r="B932" s="6"/>
       <c r="E932" s="8"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B933" s="7"/>
+      <c r="B933" s="6"/>
       <c r="E933" s="8"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B934" s="7"/>
+      <c r="B934" s="6"/>
       <c r="E934" s="8"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B935" s="7"/>
+      <c r="B935" s="6"/>
       <c r="E935" s="8"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B936" s="7"/>
+      <c r="B936" s="6"/>
       <c r="E936" s="8"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B937" s="7"/>
+      <c r="B937" s="6"/>
       <c r="E937" s="8"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B938" s="7"/>
+      <c r="B938" s="6"/>
       <c r="E938" s="8"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B939" s="7"/>
+      <c r="B939" s="6"/>
       <c r="E939" s="8"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B940" s="7"/>
+      <c r="B940" s="6"/>
       <c r="E940" s="8"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B941" s="7"/>
+      <c r="B941" s="6"/>
       <c r="E941" s="8"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B942" s="7"/>
+      <c r="B942" s="6"/>
       <c r="E942" s="8"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B943" s="7"/>
+      <c r="B943" s="6"/>
       <c r="E943" s="8"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B944" s="7"/>
+      <c r="B944" s="6"/>
       <c r="E944" s="8"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B945" s="7"/>
+      <c r="B945" s="6"/>
       <c r="E945" s="8"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B946" s="7"/>
+      <c r="B946" s="6"/>
       <c r="E946" s="8"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B947" s="7"/>
+      <c r="B947" s="6"/>
       <c r="E947" s="8"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B948" s="7"/>
+      <c r="B948" s="6"/>
       <c r="E948" s="8"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B949" s="7"/>
+      <c r="B949" s="6"/>
       <c r="E949" s="8"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B950" s="7"/>
+      <c r="B950" s="6"/>
       <c r="E950" s="8"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B951" s="7"/>
+      <c r="B951" s="6"/>
       <c r="E951" s="8"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B952" s="7"/>
+      <c r="B952" s="6"/>
       <c r="E952" s="8"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B953" s="7"/>
+      <c r="B953" s="6"/>
       <c r="E953" s="8"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B954" s="7"/>
+      <c r="B954" s="6"/>
       <c r="E954" s="8"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B955" s="7"/>
+      <c r="B955" s="6"/>
       <c r="E955" s="8"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B956" s="7"/>
+      <c r="B956" s="6"/>
       <c r="E956" s="8"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B957" s="7"/>
+      <c r="B957" s="6"/>
       <c r="E957" s="8"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B958" s="7"/>
+      <c r="B958" s="6"/>
       <c r="E958" s="8"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B959" s="7"/>
+      <c r="B959" s="6"/>
       <c r="E959" s="8"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B960" s="7"/>
+      <c r="B960" s="6"/>
       <c r="E960" s="8"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B961" s="7"/>
+      <c r="B961" s="6"/>
       <c r="E961" s="8"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B962" s="7"/>
+      <c r="B962" s="6"/>
       <c r="E962" s="8"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B963" s="7"/>
+      <c r="B963" s="6"/>
       <c r="E963" s="8"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B964" s="7"/>
+      <c r="B964" s="6"/>
       <c r="E964" s="8"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B965" s="7"/>
+      <c r="B965" s="6"/>
       <c r="E965" s="8"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B966" s="7"/>
+      <c r="B966" s="6"/>
       <c r="E966" s="8"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B967" s="7"/>
+      <c r="B967" s="6"/>
       <c r="E967" s="8"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B968" s="7"/>
+      <c r="B968" s="6"/>
       <c r="E968" s="8"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B969" s="7"/>
+      <c r="B969" s="6"/>
       <c r="E969" s="8"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B970" s="7"/>
+      <c r="B970" s="6"/>
       <c r="E970" s="8"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B971" s="7"/>
+      <c r="B971" s="6"/>
       <c r="E971" s="8"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B972" s="7"/>
+      <c r="B972" s="6"/>
       <c r="E972" s="8"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B973" s="7"/>
+      <c r="B973" s="6"/>
       <c r="E973" s="8"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B974" s="7"/>
+      <c r="B974" s="6"/>
       <c r="E974" s="8"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B975" s="7"/>
+      <c r="B975" s="6"/>
       <c r="E975" s="8"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B976" s="7"/>
+      <c r="B976" s="6"/>
       <c r="E976" s="8"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B977" s="7"/>
+      <c r="B977" s="6"/>
       <c r="E977" s="8"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B978" s="7"/>
+      <c r="B978" s="6"/>
       <c r="E978" s="8"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B979" s="7"/>
+      <c r="B979" s="6"/>
       <c r="E979" s="8"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B980" s="7"/>
+      <c r="B980" s="6"/>
       <c r="E980" s="8"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B981" s="7"/>
+      <c r="B981" s="6"/>
       <c r="E981" s="8"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B982" s="7"/>
+      <c r="B982" s="6"/>
       <c r="E982" s="8"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B983" s="7"/>
+      <c r="B983" s="6"/>
       <c r="E983" s="8"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B984" s="7"/>
+      <c r="B984" s="6"/>
       <c r="E984" s="8"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B985" s="7"/>
+      <c r="B985" s="6"/>
       <c r="E985" s="8"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B986" s="7"/>
+      <c r="B986" s="6"/>
       <c r="E986" s="8"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B987" s="7"/>
+      <c r="B987" s="6"/>
       <c r="E987" s="8"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B988" s="7"/>
+      <c r="B988" s="6"/>
       <c r="E988" s="8"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B989" s="7"/>
+      <c r="B989" s="6"/>
       <c r="E989" s="8"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B990" s="7"/>
+      <c r="B990" s="6"/>
       <c r="E990" s="8"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B991" s="7"/>
+      <c r="B991" s="6"/>
       <c r="E991" s="8"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B992" s="7"/>
+      <c r="B992" s="6"/>
       <c r="E992" s="8"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B993" s="7"/>
+      <c r="B993" s="6"/>
       <c r="E993" s="8"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B994" s="7"/>
+      <c r="B994" s="6"/>
       <c r="E994" s="8"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B995" s="7"/>
+      <c r="B995" s="6"/>
       <c r="E995" s="8"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B996" s="7"/>
+      <c r="B996" s="6"/>
       <c r="E996" s="8"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B997" s="7"/>
+      <c r="B997" s="6"/>
       <c r="E997" s="8"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B998" s="7"/>
+      <c r="B998" s="6"/>
       <c r="E998" s="8"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B999" s="7"/>
+      <c r="B999" s="6"/>
       <c r="E999" s="8"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1000" s="7"/>
+      <c r="B1000" s="6"/>
       <c r="E1000" s="8"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1001" s="7"/>
+      <c r="B1001" s="6"/>
       <c r="E1001" s="8"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1002" s="7"/>
+      <c r="B1002" s="6"/>
       <c r="E1002" s="8"/>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1003" s="7"/>
+      <c r="B1003" s="6"/>
       <c r="E1003" s="8"/>
     </row>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1004" s="7"/>
+      <c r="B1004" s="6"/>
       <c r="E1004" s="8"/>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1005" s="7"/>
+      <c r="B1005" s="6"/>
       <c r="E1005" s="8"/>
     </row>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1006" s="7"/>
+      <c r="B1006" s="6"/>
       <c r="E1006" s="8"/>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1007" s="7"/>
+      <c r="B1007" s="6"/>
       <c r="E1007" s="8"/>
     </row>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1008" s="7"/>
+      <c r="B1008" s="6"/>
       <c r="E1008" s="8"/>
     </row>
     <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1009" s="7"/>
+      <c r="B1009" s="6"/>
       <c r="E1009" s="8"/>
     </row>
   </sheetData>
@@ -10645,7 +10645,7 @@
       <c r="C8" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>272</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -10677,7 +10677,7 @@
       <c r="C9" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>277</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -10709,7 +10709,7 @@
       <c r="C10" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>281</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -10741,7 +10741,7 @@
       <c r="C11" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>285</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -10773,7 +10773,7 @@
       <c r="C12" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -11094,7 +11094,7 @@
       <c r="C22" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>319</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -11126,7 +11126,7 @@
       <c r="C23" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>322</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -11158,7 +11158,7 @@
       <c r="C24" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>325</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -11190,7 +11190,7 @@
       <c r="C25" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>327</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -11222,7 +11222,7 @@
       <c r="C26" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>329</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -11254,7 +11254,7 @@
       <c r="C27" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>330</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -11286,7 +11286,7 @@
       <c r="C28" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>332</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -11318,7 +11318,7 @@
       <c r="C29" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>335</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -11350,7 +11350,7 @@
       <c r="C30" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>338</v>
       </c>
       <c r="E30" s="15" t="s">

--- a/Testing of the Registration Form.xlsx
+++ b/Testing of the Registration Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" state="visible" r:id="rId2"/>
@@ -1767,12 +1767,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1815,7 +1822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1872,55 +1879,71 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2003,14 +2026,14 @@
   </sheetPr>
   <dimension ref="A1:B1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I76" activeCellId="0" sqref="I76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,11 +5527,11 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G90" activeCellId="0" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
@@ -5550,1182 +5573,1449 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
+    <row r="5" s="19" customFormat="true" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="B6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>3</v>
+      </c>
       <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>4</v>
+      </c>
       <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="21" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
+    <row r="9" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="21" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
+    <row r="10" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>9</v>
+      </c>
       <c r="B13" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="B14" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
+    <row r="15" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <v>12</v>
+      </c>
       <c r="B16" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <v>13</v>
+      </c>
       <c r="B17" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="98.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>14</v>
+      </c>
       <c r="B18" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <v>15</v>
+      </c>
       <c r="B19" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="18"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
+        <v>16</v>
+      </c>
       <c r="B20" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" s="19" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>17</v>
+      </c>
       <c r="B21" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" s="19" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <v>18</v>
+      </c>
       <c r="B22" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="18"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <v>19</v>
+      </c>
       <c r="B23" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="17" t="n">
+      <c r="E23" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>20</v>
+      </c>
       <c r="B24" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="17" t="n">
+      <c r="E24" s="21" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="19" customFormat="true" ht="162.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>21</v>
+      </c>
       <c r="B25" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>22</v>
+      </c>
       <c r="B26" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="18"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <v>23</v>
+      </c>
       <c r="B27" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="17" t="n">
+      <c r="E27" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
+        <v>24</v>
+      </c>
       <c r="B28" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="18"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="n">
+        <v>25</v>
+      </c>
       <c r="B29" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="18"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
+        <v>26</v>
+      </c>
       <c r="B30" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="18"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
+        <v>27</v>
+      </c>
       <c r="B31" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="18"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="n">
+        <v>28</v>
+      </c>
       <c r="B32" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="18"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="n">
+        <v>29</v>
+      </c>
       <c r="B33" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="18"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="n">
+        <v>30</v>
+      </c>
       <c r="B34" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="17" t="n">
+      <c r="E34" s="21" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="n">
+        <v>31</v>
+      </c>
       <c r="B35" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="18"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="n">
+        <v>32</v>
+      </c>
       <c r="B36" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="18"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="n">
+        <v>33</v>
+      </c>
       <c r="B37" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="17" t="n">
+      <c r="E37" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="n">
+        <v>34</v>
+      </c>
       <c r="B38" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="17" t="n">
+      <c r="E38" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="21" t="s">
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="n">
+        <v>35</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>126</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="17" t="n">
+      <c r="E39" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
+        <v>36</v>
+      </c>
       <c r="B40" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="17" t="n">
+      <c r="E40" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" s="19" customFormat="true" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
+        <v>37</v>
+      </c>
       <c r="B41" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="n">
+        <v>38</v>
+      </c>
       <c r="B42" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="18"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="n">
+        <v>39</v>
+      </c>
       <c r="B43" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="18"/>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="n">
+        <v>40</v>
+      </c>
       <c r="B44" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <v>41</v>
+      </c>
       <c r="B45" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
+        <v>42</v>
+      </c>
       <c r="B46" s="15" t="s">
         <v>140</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="18"/>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>43</v>
+      </c>
       <c r="B47" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="17" t="n">
+      <c r="E47" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="24"/>
+    </row>
+    <row r="48" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
+        <v>44</v>
+      </c>
       <c r="B48" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="17" t="n">
+      <c r="E48" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
+        <v>45</v>
+      </c>
       <c r="B49" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="17" t="n">
+      <c r="E49" s="21" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
+        <v>46</v>
+      </c>
       <c r="B50" s="15" t="s">
         <v>148</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="17" t="n">
+      <c r="E50" s="21" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <v>47</v>
+      </c>
       <c r="B51" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="17" t="n">
+      <c r="E51" s="21" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
+        <v>48</v>
+      </c>
       <c r="B52" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="17" t="n">
+      <c r="E52" s="21" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
+        <v>49</v>
+      </c>
       <c r="B53" s="15" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="20"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="n">
+        <v>50</v>
+      </c>
       <c r="B54" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="n">
+        <v>51</v>
+      </c>
       <c r="B55" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="17" t="n">
+      <c r="E55" s="21" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
+        <v>52</v>
+      </c>
       <c r="B56" s="15" t="s">
         <v>160</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="17" t="n">
+      <c r="E56" s="21" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
+        <v>53</v>
+      </c>
       <c r="B57" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="17" t="n">
+      <c r="E57" s="21" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
+        <v>54</v>
+      </c>
       <c r="B58" s="15" t="s">
         <v>164</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="17" t="n">
+      <c r="E58" s="21" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="n">
+        <v>55</v>
+      </c>
       <c r="B59" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="17" t="n">
+      <c r="E59" s="21" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="n">
+        <v>56</v>
+      </c>
       <c r="B60" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="20"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="n">
+        <v>57</v>
+      </c>
       <c r="B61" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="17" t="n">
+      <c r="E61" s="21" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
+        <v>58</v>
+      </c>
       <c r="B62" s="15" t="s">
         <v>172</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="20"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="n">
+        <v>59</v>
+      </c>
       <c r="B63" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="17" t="n">
+      <c r="E63" s="21" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="14" t="n">
+        <v>60</v>
+      </c>
       <c r="B64" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="17" t="n">
+      <c r="E64" s="21" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="14" t="n">
+        <v>61</v>
+      </c>
       <c r="B65" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="17" t="n">
+      <c r="E65" s="21" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14" t="n">
+        <v>62</v>
+      </c>
       <c r="B66" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="17" t="n">
+      <c r="E66" s="21" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="n">
+        <v>63</v>
+      </c>
       <c r="B67" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14" t="n">
+        <v>64</v>
+      </c>
       <c r="B68" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14" t="n">
+        <v>65</v>
+      </c>
       <c r="B69" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="17" t="n">
+      <c r="E69" s="21" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="n">
+        <v>66</v>
+      </c>
       <c r="B70" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="14" t="n">
+        <v>67</v>
+      </c>
       <c r="B71" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="17" t="n">
+      <c r="E71" s="21" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="14" t="n">
+        <v>68</v>
+      </c>
       <c r="B72" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="17" t="n">
+      <c r="E72" s="21" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="n">
+        <v>69</v>
+      </c>
       <c r="B73" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="n">
+        <v>70</v>
+      </c>
       <c r="B74" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="17" t="n">
+      <c r="E74" s="21" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="14" t="n">
+        <v>71</v>
+      </c>
       <c r="B75" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="14" t="n">
+        <v>72</v>
+      </c>
       <c r="B76" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="17" t="n">
+      <c r="E76" s="21" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="14" t="n">
+        <v>73</v>
+      </c>
       <c r="B77" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="17" t="n">
+      <c r="E77" s="21" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14" t="n">
+        <v>74</v>
+      </c>
       <c r="B78" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="18"/>
+      <c r="F78" s="24"/>
+    </row>
+    <row r="79" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14" t="n">
+        <v>75</v>
+      </c>
       <c r="B79" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18" t="s">
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="18"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14" t="n">
+        <v>76</v>
+      </c>
       <c r="B80" s="15" t="s">
         <v>207</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="17" t="n">
+      <c r="E80" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14" t="n">
+        <v>77</v>
+      </c>
       <c r="B81" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="17" t="n">
+      <c r="E81" s="21" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14" t="n">
+        <v>78</v>
+      </c>
       <c r="B82" s="15" t="s">
         <v>212</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="20"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="14" t="n">
+        <v>79</v>
+      </c>
       <c r="B83" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="17" t="n">
+      <c r="E83" s="21" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="14" t="n">
+        <v>80</v>
+      </c>
       <c r="B84" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="17" t="n">
+      <c r="E84" s="21" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="14" t="n">
+        <v>81</v>
+      </c>
       <c r="B85" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="17" t="n">
+      <c r="E85" s="21" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="14" t="n">
+        <v>82</v>
+      </c>
       <c r="B86" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E86" s="17" t="n">
+      <c r="E86" s="21" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="14" t="n">
+        <v>83</v>
+      </c>
       <c r="B87" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E87" s="17" t="n">
+      <c r="E87" s="21" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="14" t="n">
+        <v>84</v>
+      </c>
       <c r="B88" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E88" s="17" t="n">
+      <c r="E88" s="21" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14" t="n">
+        <v>85</v>
+      </c>
       <c r="B89" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="17" t="n">
+      <c r="E89" s="21" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14" t="n">
+        <v>86</v>
+      </c>
       <c r="B90" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="17" t="n">
+      <c r="E90" s="21" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14" t="n">
+        <v>87</v>
+      </c>
       <c r="B91" s="15" t="s">
         <v>230</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E91" s="17" t="n">
+      <c r="E91" s="21" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="6"/>
-      <c r="C94" s="18"/>
+      <c r="C94" s="24"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="6"/>
-      <c r="C95" s="18"/>
+      <c r="C95" s="24"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="6"/>
-      <c r="C96" s="18"/>
+      <c r="C96" s="24"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="6"/>
-      <c r="C97" s="18"/>
+      <c r="C97" s="24"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="6"/>
-      <c r="C98" s="18"/>
+      <c r="C98" s="24"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="6"/>
-      <c r="C99" s="18"/>
+      <c r="C99" s="24"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10404,7 +10694,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
@@ -10412,1623 +10702,1623 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="n">
+      <c r="A2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="27" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="27" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="27" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="27" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="27" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="27" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="27" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="27" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="27" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="27" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="27" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="27" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="n">
+      <c r="A15" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="n">
+      <c r="A19" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
+      <c r="A20" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="n">
+      <c r="A21" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="n">
+      <c r="A23" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="n">
+      <c r="A24" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="n">
+      <c r="A25" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="n">
+      <c r="A26" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="n">
+      <c r="A27" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="n">
+      <c r="A28" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="n">
+      <c r="A29" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="n">
+      <c r="A30" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="n">
+      <c r="A31" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="n">
+      <c r="A32" s="24" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="n">
+      <c r="A33" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="n">
+      <c r="A34" s="24" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K34" s="18"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="n">
+      <c r="A35" s="24" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K35" s="18"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="n">
+      <c r="A36" s="24" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K36" s="18"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="n">
+      <c r="A37" s="24" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K37" s="18"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="n">
+      <c r="A38" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K38" s="18"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="n">
+      <c r="A39" s="24" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K39" s="18"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="n">
+      <c r="A40" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="K40" s="18"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="n">
+      <c r="A41" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="K41" s="18"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="n">
+      <c r="A42" s="24" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K42" s="18"/>
+      <c r="K42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="n">
+      <c r="A43" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K43" s="18"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="n">
+      <c r="A44" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K44" s="18"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="n">
+      <c r="A45" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K45" s="18"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="n">
+      <c r="A46" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K46" s="18"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="n">
+      <c r="A47" s="24" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K47" s="18"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="n">
+      <c r="A48" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="J48" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K48" s="18"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="n">
+      <c r="A49" s="24" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K49" s="18"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="n">
+      <c r="A50" s="24" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K50" s="18"/>
+      <c r="K50" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Testing of the Registration Form.xlsx
+++ b/Testing of the Registration Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" state="visible" r:id="rId2"/>
@@ -1822,7 +1822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1935,6 +1935,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2030,7 +2034,7 @@
       <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.13"/>
@@ -5527,11 +5531,11 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G90" activeCellId="0" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
@@ -10688,1634 +10692,1635 @@
   </sheetPr>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="28" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="15.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>233</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="n">
+    <row r="2" s="19" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="n">
+    <row r="3" s="19" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
+    <row r="4" s="19" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
+    <row r="5" s="19" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
+    <row r="6" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
+    <row r="7" s="19" customFormat="true" ht="217.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="n">
+    <row r="8" s="19" customFormat="true" ht="229.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="n">
+    <row r="9" s="19" customFormat="true" ht="293.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="n">
+    <row r="10" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
+    <row r="11" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
+    <row r="12" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="n">
+    <row r="13" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
+    <row r="14" s="19" customFormat="true" ht="331.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="n">
+    <row r="15" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
+    <row r="16" s="19" customFormat="true" ht="280.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
+    <row r="17" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
+    <row r="18" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
+    <row r="19" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
+    <row r="20" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
+    <row r="21" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="n">
+    <row r="22" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="n">
+    <row r="23" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="n">
+    <row r="24" s="19" customFormat="true" ht="318.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="n">
+    <row r="25" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="n">
+    <row r="26" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="n">
+    <row r="27" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="n">
+    <row r="28" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="n">
+    <row r="29" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="n">
+    <row r="30" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="n">
+    <row r="31" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="n">
+    <row r="32" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="n">
+    <row r="33" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="n">
+    <row r="34" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="n">
+    <row r="35" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="n">
+    <row r="36" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="n">
+    <row r="37" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="J37" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="n">
+    <row r="38" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="n">
+    <row r="39" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J39" s="27" t="s">
+      <c r="J39" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="n">
+    <row r="40" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="26" t="s">
         <v>209</v>
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="n">
+    <row r="41" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="26" t="s">
         <v>209</v>
       </c>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="n">
+    <row r="42" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J42" s="27" t="s">
+      <c r="J42" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="n">
+    <row r="43" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J43" s="27" t="s">
+      <c r="J43" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="n">
+    <row r="44" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="n">
+    <row r="45" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J45" s="27" t="s">
+      <c r="J45" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="n">
+    <row r="46" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J46" s="27" t="s">
+      <c r="J46" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="n">
+    <row r="47" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="17" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J47" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="n">
+    <row r="48" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="n">
+    <row r="49" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J49" s="27" t="s">
+      <c r="J49" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="n">
+    <row r="50" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="H50" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J50" s="27" t="s">
+      <c r="J50" s="26" t="s">
         <v>299</v>
       </c>
       <c r="K50" s="24"/>

--- a/Testing of the Registration Form.xlsx
+++ b/Testing of the Registration Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" state="visible" r:id="rId2"/>
@@ -1892,11 +1892,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1904,11 +1900,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1916,7 +1912,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2031,10 +2031,10 @@
   <dimension ref="A1:B1021"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="1" sqref="D5:E91 A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.13"/>
@@ -5531,11 +5531,11 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G90" activeCellId="0" sqref="G90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
@@ -5577,7 +5577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="true" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="18" customFormat="true" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="n">
         <v>1</v>
       </c>
@@ -5590,9 +5590,9 @@
       <c r="D5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" s="18" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="n">
         <v>2</v>
       </c>
@@ -5600,43 +5600,43 @@
         <v>68</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="21" t="n">
+      <c r="E8" s="20" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="18" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="n">
         <v>5</v>
       </c>
@@ -5644,14 +5644,14 @@
         <v>72</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="20" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="18" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="n">
         <v>6</v>
       </c>
@@ -5662,9 +5662,9 @@
       <c r="D10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="n">
         <v>7</v>
       </c>
@@ -5675,9 +5675,9 @@
       <c r="D11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="n">
         <v>8</v>
       </c>
@@ -5688,9 +5688,9 @@
       <c r="D12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="n">
         <v>9</v>
       </c>
@@ -5703,9 +5703,9 @@
       <c r="D13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="n">
         <v>10</v>
       </c>
@@ -5715,14 +5715,14 @@
       <c r="C14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="21" t="n">
+      <c r="E14" s="20" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="n">
         <v>11</v>
       </c>
@@ -5733,9 +5733,9 @@
       <c r="D15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
         <v>12</v>
       </c>
@@ -5748,9 +5748,9 @@
       <c r="D16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="n">
         <v>13</v>
       </c>
@@ -5763,9 +5763,9 @@
       <c r="D17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" s="19" customFormat="true" ht="98.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" s="18" customFormat="true" ht="98.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="n">
         <v>14</v>
       </c>
@@ -5775,15 +5775,15 @@
       <c r="C18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="21" t="n">
+      <c r="E18" s="20" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
         <v>15</v>
       </c>
@@ -5796,10 +5796,10 @@
       <c r="D19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="n">
         <v>16</v>
       </c>
@@ -5809,15 +5809,15 @@
       <c r="C20" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="21" t="n">
+      <c r="E20" s="20" t="n">
         <v>7</v>
       </c>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" s="19" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="18" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="n">
         <v>17</v>
       </c>
@@ -5827,15 +5827,15 @@
       <c r="C21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="20" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" s="19" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="18" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
         <v>18</v>
       </c>
@@ -5848,10 +5848,10 @@
       <c r="D22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="n">
         <v>19</v>
       </c>
@@ -5861,15 +5861,15 @@
       <c r="C23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="20" t="n">
         <v>9</v>
       </c>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="n">
         <v>20</v>
       </c>
@@ -5879,14 +5879,14 @@
       <c r="C24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="21" t="n">
+      <c r="E24" s="20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="25" s="19" customFormat="true" ht="162.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="18" customFormat="true" ht="162.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="n">
         <v>21</v>
       </c>
@@ -5896,12 +5896,12 @@
       <c r="C25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <v>22</v>
       </c>
@@ -5911,13 +5911,13 @@
       <c r="C26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="n">
         <v>23</v>
       </c>
@@ -5927,15 +5927,15 @@
       <c r="C27" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="20" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="n">
         <v>24</v>
       </c>
@@ -5948,10 +5948,10 @@
       <c r="D28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="n">
         <v>25</v>
       </c>
@@ -5964,10 +5964,10 @@
       <c r="D29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="n">
         <v>26</v>
       </c>
@@ -5980,10 +5980,10 @@
       <c r="D30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="n">
         <v>27</v>
       </c>
@@ -5996,10 +5996,10 @@
       <c r="D31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="n">
         <v>28</v>
       </c>
@@ -6012,10 +6012,10 @@
       <c r="D32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="n">
         <v>29</v>
       </c>
@@ -6028,10 +6028,10 @@
       <c r="D33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="n">
         <v>30</v>
       </c>
@@ -6041,14 +6041,14 @@
       <c r="C34" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="21" t="n">
+      <c r="E34" s="20" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="35" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="n">
         <v>31</v>
       </c>
@@ -6061,10 +6061,10 @@
       <c r="D35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
         <v>32</v>
       </c>
@@ -6077,10 +6077,10 @@
       <c r="D36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="24"/>
     </row>
-    <row r="37" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
         <v>33</v>
       </c>
@@ -6090,15 +6090,15 @@
       <c r="C37" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="21" t="n">
+      <c r="E37" s="20" t="n">
         <v>13</v>
       </c>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="n">
         <v>34</v>
       </c>
@@ -6108,15 +6108,15 @@
       <c r="C38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="21" t="n">
+      <c r="E38" s="20" t="n">
         <v>14</v>
       </c>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
         <v>35</v>
       </c>
@@ -6126,15 +6126,15 @@
       <c r="C39" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="21" t="n">
+      <c r="E39" s="20" t="n">
         <v>15</v>
       </c>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="n">
         <v>36</v>
       </c>
@@ -6144,15 +6144,15 @@
       <c r="C40" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="21" t="n">
+      <c r="E40" s="20" t="n">
         <v>16</v>
       </c>
       <c r="F40" s="24"/>
     </row>
-    <row r="41" s="19" customFormat="true" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" s="18" customFormat="true" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="n">
         <v>37</v>
       </c>
@@ -6168,7 +6168,7 @@
       <c r="E41" s="23"/>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
         <v>38</v>
       </c>
@@ -6181,10 +6181,10 @@
       <c r="D42" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
         <v>39</v>
       </c>
@@ -6197,10 +6197,10 @@
       <c r="D43" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
         <v>40</v>
       </c>
@@ -6213,9 +6213,9 @@
       <c r="D44" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
         <v>41</v>
       </c>
@@ -6228,9 +6228,9 @@
       <c r="D45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="n">
         <v>42</v>
       </c>
@@ -6243,10 +6243,10 @@
       <c r="D46" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="24"/>
     </row>
-    <row r="47" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
         <v>43</v>
       </c>
@@ -6256,15 +6256,15 @@
       <c r="C47" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="21" t="n">
+      <c r="E47" s="20" t="n">
         <v>17</v>
       </c>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
         <v>44</v>
       </c>
@@ -6274,15 +6274,15 @@
       <c r="C48" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="21" t="n">
+      <c r="E48" s="20" t="n">
         <v>18</v>
       </c>
       <c r="F48" s="24"/>
     </row>
-    <row r="49" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
         <v>45</v>
       </c>
@@ -6292,14 +6292,14 @@
       <c r="C49" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="21" t="n">
+      <c r="E49" s="20" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="50" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
         <v>46</v>
       </c>
@@ -6309,14 +6309,14 @@
       <c r="C50" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="21" t="n">
+      <c r="E50" s="20" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="51" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="n">
         <v>47</v>
       </c>
@@ -6326,14 +6326,14 @@
       <c r="C51" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="21" t="n">
+      <c r="E51" s="20" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="52" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
         <v>48</v>
       </c>
@@ -6343,14 +6343,14 @@
       <c r="C52" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="21" t="n">
+      <c r="E52" s="20" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="53" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
         <v>49</v>
       </c>
@@ -6363,9 +6363,9 @@
       <c r="D53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
         <v>50</v>
       </c>
@@ -6378,9 +6378,9 @@
       <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
         <v>51</v>
       </c>
@@ -6390,14 +6390,14 @@
       <c r="C55" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="21" t="n">
+      <c r="E55" s="20" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="56" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
         <v>52</v>
       </c>
@@ -6407,14 +6407,14 @@
       <c r="C56" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="21" t="n">
+      <c r="E56" s="20" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="57" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
         <v>53</v>
       </c>
@@ -6424,14 +6424,14 @@
       <c r="C57" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="21" t="n">
+      <c r="E57" s="20" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="58" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
         <v>54</v>
       </c>
@@ -6441,14 +6441,14 @@
       <c r="C58" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="21" t="n">
+      <c r="E58" s="20" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="59" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
         <v>55</v>
       </c>
@@ -6458,14 +6458,14 @@
       <c r="C59" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="21" t="n">
+      <c r="E59" s="20" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="60" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
         <v>56</v>
       </c>
@@ -6478,9 +6478,9 @@
       <c r="D60" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
         <v>57</v>
       </c>
@@ -6490,14 +6490,14 @@
       <c r="C61" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="21" t="n">
+      <c r="E61" s="20" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="62" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
         <v>58</v>
       </c>
@@ -6510,9 +6510,9 @@
       <c r="D62" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="18"/>
-    </row>
-    <row r="63" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
         <v>59</v>
       </c>
@@ -6522,14 +6522,14 @@
       <c r="C63" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="21" t="n">
+      <c r="E63" s="20" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="64" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
         <v>60</v>
       </c>
@@ -6539,14 +6539,14 @@
       <c r="C64" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="21" t="n">
+      <c r="E64" s="20" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="65" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
         <v>61</v>
       </c>
@@ -6556,14 +6556,14 @@
       <c r="C65" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="21" t="n">
+      <c r="E65" s="20" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="66" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="n">
         <v>62</v>
       </c>
@@ -6573,14 +6573,14 @@
       <c r="C66" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="21" t="n">
+      <c r="E66" s="20" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="67" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="n">
         <v>63</v>
       </c>
@@ -6593,9 +6593,9 @@
       <c r="D67" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="18"/>
-    </row>
-    <row r="68" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="n">
         <v>64</v>
       </c>
@@ -6608,9 +6608,9 @@
       <c r="D68" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="18"/>
-    </row>
-    <row r="69" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="n">
         <v>65</v>
       </c>
@@ -6620,14 +6620,14 @@
       <c r="C69" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="21" t="n">
+      <c r="E69" s="20" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="70" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="n">
         <v>66</v>
       </c>
@@ -6640,9 +6640,9 @@
       <c r="D70" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="18"/>
-    </row>
-    <row r="71" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="n">
         <v>67</v>
       </c>
@@ -6652,14 +6652,14 @@
       <c r="C71" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="21" t="n">
+      <c r="E71" s="20" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="72" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="n">
         <v>68</v>
       </c>
@@ -6669,14 +6669,14 @@
       <c r="C72" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="21" t="n">
+      <c r="E72" s="20" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="73" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="n">
         <v>69</v>
       </c>
@@ -6689,9 +6689,9 @@
       <c r="D73" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="n">
         <v>70</v>
       </c>
@@ -6701,14 +6701,14 @@
       <c r="C74" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="21" t="n">
+      <c r="E74" s="20" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="75" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="n">
         <v>71</v>
       </c>
@@ -6721,9 +6721,9 @@
       <c r="D75" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="18"/>
-    </row>
-    <row r="76" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="n">
         <v>72</v>
       </c>
@@ -6733,14 +6733,14 @@
       <c r="C76" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="21" t="n">
+      <c r="E76" s="20" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="77" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="n">
         <v>73</v>
       </c>
@@ -6750,14 +6750,14 @@
       <c r="C77" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="21" t="n">
+      <c r="E77" s="20" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="78" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="n">
         <v>74</v>
       </c>
@@ -6770,24 +6770,24 @@
       <c r="D78" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="18"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="24"/>
     </row>
-    <row r="79" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="n">
         <v>75</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="17"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="18"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="24"/>
     </row>
-    <row r="80" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>76</v>
       </c>
@@ -6797,17 +6797,17 @@
       <c r="C80" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="21" t="n">
+      <c r="E80" s="20" t="n">
         <v>39</v>
       </c>
       <c r="F80" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="n">
         <v>77</v>
       </c>
@@ -6817,14 +6817,14 @@
       <c r="C81" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="21" t="n">
+      <c r="E81" s="20" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="82" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
         <v>78</v>
       </c>
@@ -6837,9 +6837,9 @@
       <c r="D82" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="18"/>
-    </row>
-    <row r="83" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="n">
         <v>79</v>
       </c>
@@ -6849,14 +6849,14 @@
       <c r="C83" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="21" t="n">
+      <c r="E83" s="20" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="84" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="n">
         <v>80</v>
       </c>
@@ -6866,14 +6866,14 @@
       <c r="C84" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="21" t="n">
+      <c r="E84" s="20" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="85" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="n">
         <v>81</v>
       </c>
@@ -6883,14 +6883,14 @@
       <c r="C85" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="21" t="n">
+      <c r="E85" s="20" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="86" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="14" t="n">
         <v>82</v>
       </c>
@@ -6900,14 +6900,14 @@
       <c r="C86" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E86" s="21" t="n">
+      <c r="E86" s="20" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="87" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="n">
         <v>83</v>
       </c>
@@ -6917,14 +6917,14 @@
       <c r="C87" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E87" s="21" t="n">
+      <c r="E87" s="20" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="88" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="n">
         <v>84</v>
       </c>
@@ -6934,14 +6934,14 @@
       <c r="C88" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E88" s="21" t="n">
+      <c r="E88" s="20" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="89" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="n">
         <v>85</v>
       </c>
@@ -6951,14 +6951,14 @@
       <c r="C89" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="21" t="n">
+      <c r="E89" s="20" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="90" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="n">
         <v>86</v>
       </c>
@@ -6968,14 +6968,14 @@
       <c r="C90" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="21" t="n">
+      <c r="E90" s="20" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="91" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="n">
         <v>87</v>
       </c>
@@ -6985,10 +6985,10 @@
       <c r="C91" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E91" s="21" t="n">
+      <c r="E91" s="20" t="n">
         <v>49</v>
       </c>
     </row>
@@ -10692,13 +10692,13 @@
   </sheetPr>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="H28" activeCellId="1" sqref="D5:E91 H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
@@ -10738,8 +10738,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+    <row r="2" s="18" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -10757,10 +10757,10 @@
       <c r="F2" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="22" t="s">
         <v>247</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -10770,8 +10770,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+    <row r="3" s="18" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10789,10 +10789,10 @@
       <c r="F3" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="22" t="s">
         <v>247</v>
       </c>
       <c r="I3" s="15" t="s">
@@ -10802,8 +10802,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+    <row r="4" s="18" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -10821,10 +10821,10 @@
       <c r="F4" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="22" t="s">
         <v>247</v>
       </c>
       <c r="I4" s="15" t="s">
@@ -10834,8 +10834,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+    <row r="5" s="18" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -10853,10 +10853,10 @@
       <c r="F5" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="22" t="s">
         <v>247</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -10866,8 +10866,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+    <row r="6" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10885,10 +10885,10 @@
       <c r="F6" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I6" s="15" t="s">
@@ -10898,8 +10898,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" s="19" customFormat="true" ht="217.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+    <row r="7" s="18" customFormat="true" ht="217.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -10917,10 +10917,10 @@
       <c r="F7" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I7" s="15" t="s">
@@ -10930,8 +10930,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="true" ht="229.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+    <row r="8" s="18" customFormat="true" ht="229.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -10949,10 +10949,10 @@
       <c r="F8" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I8" s="15" t="s">
@@ -10962,8 +10962,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="true" ht="293.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+    <row r="9" s="18" customFormat="true" ht="293.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10981,10 +10981,10 @@
       <c r="F9" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I9" s="15" t="s">
@@ -10994,8 +10994,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+    <row r="10" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -11013,10 +11013,10 @@
       <c r="F10" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I10" s="15" t="s">
@@ -11026,8 +11026,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+    <row r="11" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -11045,10 +11045,10 @@
       <c r="F11" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I11" s="15" t="s">
@@ -11058,8 +11058,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+    <row r="12" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -11077,10 +11077,10 @@
       <c r="F12" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I12" s="15" t="s">
@@ -11090,8 +11090,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+    <row r="13" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -11109,10 +11109,10 @@
       <c r="F13" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I13" s="15" t="s">
@@ -11122,8 +11122,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="true" ht="331.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+    <row r="14" s="18" customFormat="true" ht="331.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -11141,10 +11141,10 @@
       <c r="F14" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I14" s="15" t="s">
@@ -11154,8 +11154,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+    <row r="15" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -11173,10 +11173,10 @@
       <c r="F15" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I15" s="15" t="s">
@@ -11187,8 +11187,8 @@
       </c>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" s="19" customFormat="true" ht="280.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+    <row r="16" s="18" customFormat="true" ht="280.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -11206,10 +11206,10 @@
       <c r="F16" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I16" s="15" t="s">
@@ -11219,8 +11219,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+    <row r="17" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -11238,10 +11238,10 @@
       <c r="F17" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I17" s="15" t="s">
@@ -11251,8 +11251,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+    <row r="18" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -11270,10 +11270,10 @@
       <c r="F18" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I18" s="15" t="s">
@@ -11283,8 +11283,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+    <row r="19" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -11302,10 +11302,10 @@
       <c r="F19" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I19" s="15" t="s">
@@ -11315,8 +11315,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+    <row r="20" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -11334,10 +11334,10 @@
       <c r="F20" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I20" s="15" t="s">
@@ -11347,8 +11347,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+    <row r="21" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -11366,10 +11366,10 @@
       <c r="F21" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I21" s="15" t="s">
@@ -11379,8 +11379,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+    <row r="22" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -11398,10 +11398,10 @@
       <c r="F22" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I22" s="15" t="s">
@@ -11411,8 +11411,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+    <row r="23" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -11430,10 +11430,10 @@
       <c r="F23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I23" s="15" t="s">
@@ -11443,8 +11443,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" s="19" customFormat="true" ht="318.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+    <row r="24" s="18" customFormat="true" ht="318.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -11462,10 +11462,10 @@
       <c r="F24" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I24" s="15" t="s">
@@ -11475,8 +11475,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
+    <row r="25" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -11494,10 +11494,10 @@
       <c r="F25" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I25" s="15" t="s">
@@ -11507,8 +11507,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
+    <row r="26" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -11526,10 +11526,10 @@
       <c r="F26" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I26" s="15" t="s">
@@ -11539,8 +11539,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
+    <row r="27" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -11558,10 +11558,10 @@
       <c r="F27" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I27" s="15" t="s">
@@ -11571,8 +11571,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
+    <row r="28" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -11590,10 +11590,10 @@
       <c r="F28" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I28" s="15" t="s">
@@ -11603,8 +11603,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="n">
+    <row r="29" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -11622,10 +11622,10 @@
       <c r="F29" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I29" s="15" t="s">
@@ -11635,8 +11635,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="n">
+    <row r="30" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -11654,10 +11654,10 @@
       <c r="F30" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I30" s="15" t="s">
@@ -11667,8 +11667,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="n">
+    <row r="31" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -11686,10 +11686,10 @@
       <c r="F31" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I31" s="15" t="s">
@@ -11699,8 +11699,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="n">
+    <row r="32" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -11718,10 +11718,10 @@
       <c r="F32" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I32" s="15" t="s">
@@ -11731,8 +11731,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="n">
+    <row r="33" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -11750,10 +11750,10 @@
       <c r="F33" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I33" s="15" t="s">
@@ -11764,8 +11764,8 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+    <row r="34" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -11783,10 +11783,10 @@
       <c r="F34" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I34" s="15" t="s">
@@ -11797,8 +11797,8 @@
       </c>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+    <row r="35" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -11816,10 +11816,10 @@
       <c r="F35" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I35" s="15" t="s">
@@ -11830,8 +11830,8 @@
       </c>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+    <row r="36" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -11849,10 +11849,10 @@
       <c r="F36" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I36" s="15" t="s">
@@ -11863,8 +11863,8 @@
       </c>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+    <row r="37" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -11882,10 +11882,10 @@
       <c r="F37" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I37" s="15" t="s">
@@ -11896,8 +11896,8 @@
       </c>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+    <row r="38" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -11915,10 +11915,10 @@
       <c r="F38" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I38" s="15" t="s">
@@ -11929,8 +11929,8 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+    <row r="39" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="22" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -11948,10 +11948,10 @@
       <c r="F39" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="22" t="s">
         <v>265</v>
       </c>
       <c r="I39" s="15" t="s">
@@ -11962,8 +11962,8 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
+    <row r="40" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="22" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -11981,10 +11981,10 @@
       <c r="F40" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I40" s="15" t="s">
@@ -11995,8 +11995,8 @@
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="n">
+    <row r="41" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="22" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -12014,10 +12014,10 @@
       <c r="F41" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I41" s="15" t="s">
@@ -12028,8 +12028,8 @@
       </c>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="n">
+    <row r="42" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="22" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -12047,10 +12047,10 @@
       <c r="F42" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I42" s="15" t="s">
@@ -12061,8 +12061,8 @@
       </c>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="n">
+    <row r="43" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="22" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -12080,10 +12080,10 @@
       <c r="F43" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I43" s="15" t="s">
@@ -12094,8 +12094,8 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="n">
+    <row r="44" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="22" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -12113,10 +12113,10 @@
       <c r="F44" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I44" s="15" t="s">
@@ -12127,8 +12127,8 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="n">
+    <row r="45" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="22" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -12146,10 +12146,10 @@
       <c r="F45" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I45" s="15" t="s">
@@ -12160,8 +12160,8 @@
       </c>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="n">
+    <row r="46" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="22" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -12179,10 +12179,10 @@
       <c r="F46" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I46" s="15" t="s">
@@ -12193,8 +12193,8 @@
       </c>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="n">
+    <row r="47" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -12212,10 +12212,10 @@
       <c r="F47" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I47" s="15" t="s">
@@ -12226,8 +12226,8 @@
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="n">
+    <row r="48" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="22" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -12245,10 +12245,10 @@
       <c r="F48" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I48" s="15" t="s">
@@ -12259,8 +12259,8 @@
       </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
+    <row r="49" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="22" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -12278,10 +12278,10 @@
       <c r="F49" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I49" s="15" t="s">
@@ -12292,8 +12292,8 @@
       </c>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="n">
+    <row r="50" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="22" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -12311,10 +12311,10 @@
       <c r="F50" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I50" s="15" t="s">

--- a/Testing of the Registration Form.xlsx
+++ b/Testing of the Registration Form.xlsx
@@ -1822,7 +1822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1891,6 +1891,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1899,7 +1903,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2031,10 +2035,10 @@
   <dimension ref="A1:B1021"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="1" sqref="D5:E91 A83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.13"/>
@@ -5531,11 +5535,11 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5:E91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
@@ -5577,7 +5581,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" s="18" customFormat="true" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="19" customFormat="true" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="n">
         <v>1</v>
       </c>
@@ -5590,9 +5594,9 @@
       <c r="D5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" s="18" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="n">
         <v>2</v>
       </c>
@@ -5600,43 +5604,43 @@
         <v>68</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="21" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="n">
         <v>5</v>
       </c>
@@ -5644,14 +5648,14 @@
         <v>72</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="21" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="19" customFormat="true" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="n">
         <v>6</v>
       </c>
@@ -5662,9 +5666,9 @@
       <c r="D10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="n">
         <v>7</v>
       </c>
@@ -5675,9 +5679,9 @@
       <c r="D11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="n">
         <v>8</v>
       </c>
@@ -5688,9 +5692,9 @@
       <c r="D12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="n">
         <v>9</v>
       </c>
@@ -5703,9 +5707,9 @@
       <c r="D13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="n">
         <v>10</v>
       </c>
@@ -5715,14 +5719,14 @@
       <c r="C14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="E14" s="21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="n">
         <v>11</v>
       </c>
@@ -5733,9 +5737,9 @@
       <c r="D15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
         <v>12</v>
       </c>
@@ -5748,9 +5752,9 @@
       <c r="D16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="n">
         <v>13</v>
       </c>
@@ -5763,9 +5767,9 @@
       <c r="D17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" s="18" customFormat="true" ht="98.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="98.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="n">
         <v>14</v>
       </c>
@@ -5775,15 +5779,15 @@
       <c r="C18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
         <v>15</v>
       </c>
@@ -5796,10 +5800,10 @@
       <c r="D19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E19" s="18"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="n">
         <v>16</v>
       </c>
@@ -5809,15 +5813,15 @@
       <c r="C20" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" s="18" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" s="19" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="n">
         <v>17</v>
       </c>
@@ -5827,15 +5831,15 @@
       <c r="C21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="20" t="n">
+      <c r="E21" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" s="18" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" s="19" customFormat="true" ht="200.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
         <v>18</v>
       </c>
@@ -5848,10 +5852,10 @@
       <c r="D22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="n">
         <v>19</v>
       </c>
@@ -5861,15 +5865,15 @@
       <c r="C23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="20" t="n">
+      <c r="E23" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="n">
         <v>20</v>
       </c>
@@ -5879,14 +5883,14 @@
       <c r="C24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="21" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="25" s="18" customFormat="true" ht="162.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="19" customFormat="true" ht="162.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="n">
         <v>21</v>
       </c>
@@ -5899,9 +5903,9 @@
       <c r="D25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <v>22</v>
       </c>
@@ -5914,10 +5918,10 @@
       <c r="D26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E26" s="18"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="n">
         <v>23</v>
       </c>
@@ -5927,15 +5931,15 @@
       <c r="C27" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="20" t="n">
+      <c r="E27" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="n">
         <v>24</v>
       </c>
@@ -5948,10 +5952,10 @@
       <c r="D28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E28" s="18"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="n">
         <v>25</v>
       </c>
@@ -5964,10 +5968,10 @@
       <c r="D29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E29" s="18"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="n">
         <v>26</v>
       </c>
@@ -5980,10 +5984,10 @@
       <c r="D30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E30" s="18"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="n">
         <v>27</v>
       </c>
@@ -5996,10 +6000,10 @@
       <c r="D31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E31" s="18"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="n">
         <v>28</v>
       </c>
@@ -6012,10 +6016,10 @@
       <c r="D32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E32" s="18"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="n">
         <v>29</v>
       </c>
@@ -6028,10 +6032,10 @@
       <c r="D33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E33" s="18"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="n">
         <v>30</v>
       </c>
@@ -6041,14 +6045,14 @@
       <c r="C34" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="20" t="n">
+      <c r="E34" s="21" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="35" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="n">
         <v>31</v>
       </c>
@@ -6061,10 +6065,10 @@
       <c r="D35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E35" s="18"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
         <v>32</v>
       </c>
@@ -6077,10 +6081,10 @@
       <c r="D36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E36" s="18"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
         <v>33</v>
       </c>
@@ -6090,15 +6094,15 @@
       <c r="C37" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="20" t="n">
+      <c r="E37" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="n">
         <v>34</v>
       </c>
@@ -6108,33 +6112,33 @@
       <c r="C38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="20" t="n">
+      <c r="E38" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="20" t="n">
+      <c r="E39" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="n">
         <v>36</v>
       </c>
@@ -6144,15 +6148,15 @@
       <c r="C40" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="20" t="n">
+      <c r="E40" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" s="18" customFormat="true" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" s="19" customFormat="true" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="n">
         <v>37</v>
       </c>
@@ -6165,10 +6169,10 @@
       <c r="D41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
         <v>38</v>
       </c>
@@ -6181,10 +6185,10 @@
       <c r="D42" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E42" s="18"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
         <v>39</v>
       </c>
@@ -6197,10 +6201,10 @@
       <c r="D43" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E43" s="18"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
         <v>40</v>
       </c>
@@ -6213,9 +6217,9 @@
       <c r="D44" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
         <v>41</v>
       </c>
@@ -6228,9 +6232,9 @@
       <c r="D45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="n">
         <v>42</v>
       </c>
@@ -6243,10 +6247,10 @@
       <c r="D46" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E46" s="18"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
         <v>43</v>
       </c>
@@ -6256,33 +6260,33 @@
       <c r="C47" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="20" t="n">
+      <c r="E47" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
         <v>44</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="20" t="n">
+      <c r="E48" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
         <v>45</v>
       </c>
@@ -6292,14 +6296,14 @@
       <c r="C49" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="20" t="n">
+      <c r="E49" s="21" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="50" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
         <v>46</v>
       </c>
@@ -6309,14 +6313,14 @@
       <c r="C50" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="20" t="n">
+      <c r="E50" s="21" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="51" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="n">
         <v>47</v>
       </c>
@@ -6326,14 +6330,14 @@
       <c r="C51" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="20" t="n">
+      <c r="E51" s="21" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="52" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
         <v>48</v>
       </c>
@@ -6343,14 +6347,14 @@
       <c r="C52" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="20" t="n">
+      <c r="E52" s="21" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="53" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
         <v>49</v>
       </c>
@@ -6363,9 +6367,9 @@
       <c r="D53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
         <v>50</v>
       </c>
@@ -6378,9 +6382,9 @@
       <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
         <v>51</v>
       </c>
@@ -6390,14 +6394,14 @@
       <c r="C55" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="20" t="n">
+      <c r="E55" s="21" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="56" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
         <v>52</v>
       </c>
@@ -6407,14 +6411,14 @@
       <c r="C56" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="20" t="n">
+      <c r="E56" s="21" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="57" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
         <v>53</v>
       </c>
@@ -6424,14 +6428,14 @@
       <c r="C57" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="20" t="n">
+      <c r="E57" s="21" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="58" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
         <v>54</v>
       </c>
@@ -6441,14 +6445,14 @@
       <c r="C58" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="20" t="n">
+      <c r="E58" s="21" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="59" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
         <v>55</v>
       </c>
@@ -6458,14 +6462,14 @@
       <c r="C59" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="20" t="n">
+      <c r="E59" s="21" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="60" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
         <v>56</v>
       </c>
@@ -6478,9 +6482,9 @@
       <c r="D60" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
         <v>57</v>
       </c>
@@ -6490,14 +6494,14 @@
       <c r="C61" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="20" t="n">
+      <c r="E61" s="21" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="62" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
         <v>58</v>
       </c>
@@ -6510,9 +6514,9 @@
       <c r="D62" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
         <v>59</v>
       </c>
@@ -6522,14 +6526,14 @@
       <c r="C63" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="20" t="n">
+      <c r="E63" s="21" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="64" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
         <v>60</v>
       </c>
@@ -6539,14 +6543,14 @@
       <c r="C64" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="20" t="n">
+      <c r="E64" s="21" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="65" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
         <v>61</v>
       </c>
@@ -6556,14 +6560,14 @@
       <c r="C65" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="20" t="n">
+      <c r="E65" s="21" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="66" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="n">
         <v>62</v>
       </c>
@@ -6573,14 +6577,14 @@
       <c r="C66" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="20" t="n">
+      <c r="E66" s="21" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="67" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="n">
         <v>63</v>
       </c>
@@ -6593,9 +6597,9 @@
       <c r="D67" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="17"/>
-    </row>
-    <row r="68" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="n">
         <v>64</v>
       </c>
@@ -6608,9 +6612,9 @@
       <c r="D68" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" s="18" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" s="19" customFormat="true" ht="187.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="n">
         <v>65</v>
       </c>
@@ -6620,14 +6624,14 @@
       <c r="C69" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="20" t="n">
+      <c r="E69" s="21" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="70" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="n">
         <v>66</v>
       </c>
@@ -6640,9 +6644,9 @@
       <c r="D70" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="n">
         <v>67</v>
       </c>
@@ -6652,14 +6656,14 @@
       <c r="C71" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="20" t="n">
+      <c r="E71" s="21" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="72" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="n">
         <v>68</v>
       </c>
@@ -6669,14 +6673,14 @@
       <c r="C72" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="20" t="n">
+      <c r="E72" s="21" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="73" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="n">
         <v>69</v>
       </c>
@@ -6689,9 +6693,9 @@
       <c r="D73" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="n">
         <v>70</v>
       </c>
@@ -6701,14 +6705,14 @@
       <c r="C74" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="20" t="n">
+      <c r="E74" s="21" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="75" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="n">
         <v>71</v>
       </c>
@@ -6721,9 +6725,9 @@
       <c r="D75" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="n">
         <v>72</v>
       </c>
@@ -6733,14 +6737,14 @@
       <c r="C76" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="20" t="n">
+      <c r="E76" s="21" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="77" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="n">
         <v>73</v>
       </c>
@@ -6750,14 +6754,14 @@
       <c r="C77" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="20" t="n">
+      <c r="E77" s="21" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="78" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="n">
         <v>74</v>
       </c>
@@ -6770,24 +6774,24 @@
       <c r="D78" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="24"/>
-    </row>
-    <row r="79" s="18" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E78" s="18"/>
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79" s="19" customFormat="true" ht="60.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="n">
         <v>75</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="24"/>
-    </row>
-    <row r="80" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E79" s="18"/>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>76</v>
       </c>
@@ -6797,17 +6801,17 @@
       <c r="C80" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="20" t="n">
+      <c r="E80" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F80" s="28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="n">
         <v>77</v>
       </c>
@@ -6817,14 +6821,14 @@
       <c r="C81" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="20" t="n">
+      <c r="E81" s="21" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="82" s="18" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" s="19" customFormat="true" ht="149.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
         <v>78</v>
       </c>
@@ -6837,9 +6841,9 @@
       <c r="D82" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="n">
         <v>79</v>
       </c>
@@ -6849,14 +6853,14 @@
       <c r="C83" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="20" t="n">
+      <c r="E83" s="21" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="84" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="n">
         <v>80</v>
       </c>
@@ -6866,14 +6870,14 @@
       <c r="C84" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="20" t="n">
+      <c r="E84" s="21" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="85" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="n">
         <v>81</v>
       </c>
@@ -6883,14 +6887,14 @@
       <c r="C85" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="20" t="n">
+      <c r="E85" s="21" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="86" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="14" t="n">
         <v>82</v>
       </c>
@@ -6900,14 +6904,14 @@
       <c r="C86" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E86" s="20" t="n">
+      <c r="E86" s="21" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="87" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="n">
         <v>83</v>
       </c>
@@ -6917,14 +6921,14 @@
       <c r="C87" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E87" s="20" t="n">
+      <c r="E87" s="21" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="88" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="n">
         <v>84</v>
       </c>
@@ -6934,14 +6938,14 @@
       <c r="C88" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E88" s="20" t="n">
+      <c r="E88" s="21" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="89" s="18" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" s="19" customFormat="true" ht="111.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="n">
         <v>85</v>
       </c>
@@ -6951,14 +6955,14 @@
       <c r="C89" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="20" t="n">
+      <c r="E89" s="21" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="90" s="18" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" s="19" customFormat="true" ht="124.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="n">
         <v>86</v>
       </c>
@@ -6968,14 +6972,14 @@
       <c r="C90" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="20" t="n">
+      <c r="E90" s="21" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="91" s="18" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" s="19" customFormat="true" ht="136.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="n">
         <v>87</v>
       </c>
@@ -6985,41 +6989,41 @@
       <c r="C91" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E91" s="20" t="n">
+      <c r="E91" s="21" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="6"/>
-      <c r="C94" s="24"/>
+      <c r="C94" s="25"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="6"/>
-      <c r="C95" s="24"/>
+      <c r="C95" s="25"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="6"/>
-      <c r="C96" s="24"/>
+      <c r="C96" s="25"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="6"/>
-      <c r="C97" s="24"/>
+      <c r="C97" s="25"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="6"/>
-      <c r="C98" s="24"/>
+      <c r="C98" s="25"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="6"/>
-      <c r="C99" s="24"/>
+      <c r="C99" s="25"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10695,57 +10699,57 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H28" activeCellId="1" sqref="D5:E91 H28"/>
+      <selection pane="bottomLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="28" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="29" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="n">
+    <row r="2" s="19" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -10757,27 +10761,27 @@
       <c r="F2" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>247</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="n">
+    <row r="3" s="19" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -10789,27 +10793,27 @@
       <c r="F3" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>247</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="27" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="n">
+    <row r="4" s="19" customFormat="true" ht="103.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -10821,27 +10825,27 @@
       <c r="F4" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>247</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" s="18" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
+    <row r="5" s="19" customFormat="true" ht="115.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -10853,27 +10857,27 @@
       <c r="F5" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>247</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="27" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="n">
+    <row r="6" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -10885,27 +10889,27 @@
       <c r="F6" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="true" ht="217.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="n">
+    <row r="7" s="19" customFormat="true" ht="217.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -10917,27 +10921,27 @@
       <c r="F7" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="27" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="true" ht="229.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="n">
+    <row r="8" s="19" customFormat="true" ht="229.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -10949,27 +10953,27 @@
       <c r="F8" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="true" ht="293.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
+    <row r="9" s="19" customFormat="true" ht="293.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -10981,27 +10985,27 @@
       <c r="F9" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="27" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
+    <row r="10" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -11013,27 +11017,27 @@
       <c r="F10" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="27" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
+    <row r="11" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -11045,27 +11049,27 @@
       <c r="F11" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+    <row r="12" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -11077,27 +11081,27 @@
       <c r="F12" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="27" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="13" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
+    <row r="13" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -11109,27 +11113,27 @@
       <c r="F13" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="true" ht="331.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+    <row r="14" s="19" customFormat="true" ht="331.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -11141,27 +11145,27 @@
       <c r="F14" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+    <row r="15" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -11173,28 +11177,28 @@
       <c r="F15" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" s="18" customFormat="true" ht="280.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="n">
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" s="19" customFormat="true" ht="280.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -11206,27 +11210,27 @@
       <c r="F16" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="n">
+    <row r="17" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -11238,27 +11242,27 @@
       <c r="F17" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+    <row r="18" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -11270,27 +11274,27 @@
       <c r="F18" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="19" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="n">
+    <row r="19" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -11302,27 +11306,27 @@
       <c r="F19" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="20" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="n">
+    <row r="20" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -11334,27 +11338,27 @@
       <c r="F20" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="21" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="n">
+    <row r="21" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -11366,27 +11370,27 @@
       <c r="F21" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="n">
+    <row r="22" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -11398,27 +11402,27 @@
       <c r="F22" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="n">
+    <row r="23" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -11430,27 +11434,27 @@
       <c r="F23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="true" ht="318.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="n">
+    <row r="24" s="19" customFormat="true" ht="318.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -11462,27 +11466,27 @@
       <c r="F24" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="25" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="n">
+    <row r="25" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="15" t="s">
@@ -11494,27 +11498,27 @@
       <c r="F25" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="n">
+    <row r="26" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -11526,27 +11530,27 @@
       <c r="F26" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="n">
+    <row r="27" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D27" s="15" t="s">
@@ -11558,27 +11562,27 @@
       <c r="F27" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="28" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="n">
+    <row r="28" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -11590,27 +11594,27 @@
       <c r="F28" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="n">
+    <row r="29" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="23" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -11622,27 +11626,27 @@
       <c r="F29" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="30" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="n">
+    <row r="30" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="23" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -11654,27 +11658,27 @@
       <c r="F30" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="n">
+    <row r="31" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -11686,27 +11690,27 @@
       <c r="F31" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="32" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="n">
+    <row r="32" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -11718,27 +11722,27 @@
       <c r="F32" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="27" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="33" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="n">
+    <row r="33" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="23" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D33" s="15" t="s">
@@ -11750,28 +11754,28 @@
       <c r="F33" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="n">
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -11783,28 +11787,28 @@
       <c r="F34" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="n">
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -11816,28 +11820,28 @@
       <c r="F35" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="n">
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="23" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -11849,28 +11853,28 @@
       <c r="F36" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="n">
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D37" s="15" t="s">
@@ -11882,28 +11886,28 @@
       <c r="F37" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="n">
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -11915,28 +11919,28 @@
       <c r="F38" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K38" s="24"/>
-    </row>
-    <row r="39" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="n">
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -11948,28 +11952,28 @@
       <c r="F39" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="23" t="s">
         <v>265</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K39" s="24"/>
-    </row>
-    <row r="40" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="n">
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -11981,28 +11985,28 @@
       <c r="F40" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="n">
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="23" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="15" t="s">
@@ -12014,28 +12018,28 @@
       <c r="F41" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="n">
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="23" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -12047,28 +12051,28 @@
       <c r="F42" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K42" s="24"/>
-    </row>
-    <row r="43" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="n">
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="23" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -12080,28 +12084,28 @@
       <c r="F43" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="n">
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="23" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -12113,28 +12117,28 @@
       <c r="F44" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="n">
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="23" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -12146,28 +12150,28 @@
       <c r="F45" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="n">
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -12179,28 +12183,28 @@
       <c r="F46" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="n">
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D47" s="15" t="s">
@@ -12212,28 +12216,28 @@
       <c r="F47" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="J47" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" s="18" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="n">
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" s="19" customFormat="true" ht="242.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="23" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -12245,28 +12249,28 @@
       <c r="F48" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="J48" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" s="18" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="n">
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" s="19" customFormat="true" ht="255.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D49" s="15" t="s">
@@ -12278,28 +12282,28 @@
       <c r="F49" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J49" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" s="18" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="n">
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" s="19" customFormat="true" ht="268" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>243</v>
       </c>
       <c r="D50" s="15" t="s">
@@ -12311,19 +12315,19 @@
       <c r="F50" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="23" t="s">
         <v>359</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="K50" s="24"/>
+      <c r="K50" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
